--- a/dados_moscas.xlsx
+++ b/dados_moscas.xlsx
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>0.9911143605131656</v>
+        <v>1.451195391881716</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="AE3">
-        <v>0.1409912458620965</v>
+        <v>0.7729929568210693</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="AE4">
-        <v>0.7875819623004645</v>
+        <v>2.323096184762113</v>
       </c>
     </row>
     <row r="5">
@@ -939,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="AE5">
-        <v>0.5097265378572047</v>
+        <v>1.118957045121186</v>
       </c>
     </row>
     <row r="6">
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="AE6">
-        <v>0.9978981011081487</v>
+        <v>0.3063682833101702</v>
       </c>
     </row>
     <row r="7">
@@ -1153,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="AE7">
-        <v>0.506079280981794</v>
+        <v>1.787356196486294</v>
       </c>
     </row>
     <row r="8">
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="AE8">
-        <v>0.9137142584659159</v>
+        <v>1.151991558825854</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="AE9">
-        <v>0.5629230600316077</v>
+        <v>4.371314876503607</v>
       </c>
     </row>
     <row r="10">
@@ -1474,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="AE10">
-        <v>0.5411481657065451</v>
+        <v>0.5815462930000187</v>
       </c>
     </row>
     <row r="11">
@@ -1581,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="AE11">
-        <v>0.03384108003228903</v>
+        <v>1.022246410033282</v>
       </c>
     </row>
     <row r="12">
@@ -1688,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="AE12">
-        <v>0.2389799538068473</v>
+        <v>1.11089713878357</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="AE13">
-        <v>0.3740002245176584</v>
+        <v>0.7319503538542909</v>
       </c>
     </row>
     <row r="14">
@@ -1902,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="AE14">
-        <v>0.1794829156715423</v>
+        <v>1.447823425881877</v>
       </c>
     </row>
     <row r="15">
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AE15">
-        <v>0.1280861000996083</v>
+        <v>1.074500856765508</v>
       </c>
     </row>
     <row r="16">
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="AE16">
-        <v>0.9409599134232849</v>
+        <v>0.6295925013637005</v>
       </c>
     </row>
     <row r="17">
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="AE17">
-        <v>0.1019373615272343</v>
+        <v>0.5763175005044396</v>
       </c>
     </row>
     <row r="18">
@@ -2330,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="AE18">
-        <v>0.4426349510904402</v>
+        <v>0.6207243615684914</v>
       </c>
     </row>
     <row r="19">
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="AE19">
-        <v>0.162860969780013</v>
+        <v>2.075910402977262</v>
       </c>
     </row>
     <row r="20">
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0.862343592569232</v>
+        <v>0.5920673219831879</v>
       </c>
     </row>
     <row r="21">
@@ -2651,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="AE21">
-        <v>0.6530032649170607</v>
+        <v>1.163447093550406</v>
       </c>
     </row>
     <row r="22">
@@ -2758,7 +2758,7 @@
         <v>6</v>
       </c>
       <c r="AE22">
-        <v>0.3043801137246192</v>
+        <v>1.050950029729788</v>
       </c>
     </row>
     <row r="23">
@@ -2865,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="AE23">
-        <v>0.7910072519443929</v>
+        <v>1.515175493836536</v>
       </c>
     </row>
     <row r="24">
@@ -2972,7 +2972,7 @@
         <v>7</v>
       </c>
       <c r="AE24">
-        <v>0.5564439862500876</v>
+        <v>0.3807705352171408</v>
       </c>
     </row>
     <row r="25">
@@ -3079,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="AE25">
-        <v>0.3862924568820745</v>
+        <v>0.5569587838496312</v>
       </c>
     </row>
     <row r="26">
@@ -3186,7 +3186,7 @@
         <v>10</v>
       </c>
       <c r="AE26">
-        <v>0.9356500904541463</v>
+        <v>0.6307304424457625</v>
       </c>
     </row>
     <row r="27">
@@ -3293,7 +3293,7 @@
         <v>7</v>
       </c>
       <c r="AE27">
-        <v>0.5124229937791824</v>
+        <v>2.977425889079508</v>
       </c>
     </row>
     <row r="28">
@@ -3400,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="AE28">
-        <v>0.9484395745676011</v>
+        <v>0.4295598340981966</v>
       </c>
     </row>
     <row r="29">
@@ -3507,7 +3507,7 @@
         <v>5</v>
       </c>
       <c r="AE29">
-        <v>0.9291552612558007</v>
+        <v>0.9237894133714976</v>
       </c>
     </row>
     <row r="30">
@@ -3614,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="AE30">
-        <v>0.2056856176350266</v>
+        <v>8.605629408967721</v>
       </c>
     </row>
     <row r="31">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="AE31">
-        <v>0.08085511531680822</v>
+        <v>0.4030728874284288</v>
       </c>
     </row>
     <row r="32">
@@ -3828,7 +3828,7 @@
         <v>9</v>
       </c>
       <c r="AE32">
-        <v>0.09763580141589046</v>
+        <v>1.449214373267588</v>
       </c>
     </row>
     <row r="33">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="AE33">
-        <v>0.7885559189599007</v>
+        <v>0.4688009466027624</v>
       </c>
     </row>
     <row r="34">
@@ -4042,7 +4042,7 @@
         <v>7</v>
       </c>
       <c r="AE34">
-        <v>0.6393142719753087</v>
+        <v>0.02362568232738742</v>
       </c>
     </row>
     <row r="35">
@@ -4149,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="AE35">
-        <v>0.6693352209404111</v>
+        <v>1.463809631147603</v>
       </c>
     </row>
     <row r="36">
@@ -4256,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="AE36">
-        <v>0.2933865245431662</v>
+        <v>0.5874524945581763</v>
       </c>
     </row>
     <row r="37">
@@ -4363,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="AE37">
-        <v>0.4388002485502511</v>
+        <v>1.517225390485845</v>
       </c>
     </row>
     <row r="38">
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>0.8135673850774765</v>
+        <v>6.52284766236202</v>
       </c>
     </row>
     <row r="39">
@@ -4577,7 +4577,7 @@
         <v>10</v>
       </c>
       <c r="AE39">
-        <v>0.1547186304815114</v>
+        <v>0.4358059951058447</v>
       </c>
     </row>
     <row r="40">
@@ -4684,7 +4684,7 @@
         <v>4</v>
       </c>
       <c r="AE40">
-        <v>0.07053217105567455</v>
+        <v>0.7440437745330168</v>
       </c>
     </row>
     <row r="41">
@@ -4791,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="AE41">
-        <v>0.8549694626126438</v>
+        <v>0.3850434763910596</v>
       </c>
     </row>
     <row r="42">
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="AE42">
-        <v>0.1861617744434625</v>
+        <v>0.513125664041537</v>
       </c>
     </row>
     <row r="43">
@@ -5005,7 +5005,7 @@
         <v>9</v>
       </c>
       <c r="AE43">
-        <v>0.8445590380579233</v>
+        <v>1.165123248833357</v>
       </c>
     </row>
     <row r="44">
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="AE44">
-        <v>0.04798245034180582</v>
+        <v>2.106741543881224</v>
       </c>
     </row>
     <row r="45">
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="AE45">
-        <v>0.5572742305230349</v>
+        <v>1.440740270542127</v>
       </c>
     </row>
     <row r="46">
@@ -5326,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="AE46">
-        <v>0.3106332961469889</v>
+        <v>19.62121672325917</v>
       </c>
     </row>
     <row r="47">
@@ -5433,7 +5433,7 @@
         <v>5</v>
       </c>
       <c r="AE47">
-        <v>0.3891221629455686</v>
+        <v>1.126952617498542</v>
       </c>
     </row>
     <row r="48">
@@ -5540,7 +5540,7 @@
         <v>9</v>
       </c>
       <c r="AE48">
-        <v>0.7694760737940669</v>
+        <v>0.2519242683300516</v>
       </c>
     </row>
     <row r="49">
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="AE49">
-        <v>0.6218005160335451</v>
+        <v>0.4131638729533652</v>
       </c>
     </row>
     <row r="50">
@@ -5754,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="AE50">
-        <v>0.6538709646556526</v>
+        <v>1.590463952011851</v>
       </c>
     </row>
     <row r="51">
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="AE51">
-        <v>0.9763610705267638</v>
+        <v>2.874008817233549</v>
       </c>
     </row>
     <row r="52">
@@ -5968,7 +5968,7 @@
         <v>3</v>
       </c>
       <c r="AE52">
-        <v>0.07566576381213963</v>
+        <v>1.224481434648475</v>
       </c>
     </row>
     <row r="53">
@@ -6075,7 +6075,7 @@
         <v>10</v>
       </c>
       <c r="AE53">
-        <v>0.4951948740053922</v>
+        <v>0.9003571527116762</v>
       </c>
     </row>
     <row r="54">
@@ -6182,7 +6182,7 @@
         <v>7</v>
       </c>
       <c r="AE54">
-        <v>0.5228732186369598</v>
+        <v>0.481114686537072</v>
       </c>
     </row>
     <row r="55">
@@ -6289,7 +6289,7 @@
         <v>9</v>
       </c>
       <c r="AE55">
-        <v>0.01528959232382476</v>
+        <v>1.673302712103901</v>
       </c>
     </row>
     <row r="56">
@@ -6396,7 +6396,7 @@
         <v>7</v>
       </c>
       <c r="AE56">
-        <v>0.7091064737178385</v>
+        <v>2.262888995353567</v>
       </c>
     </row>
     <row r="57">
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="AE57">
-        <v>0.6328059528023005</v>
+        <v>5.316613489167693</v>
       </c>
     </row>
     <row r="58">
@@ -6610,7 +6610,7 @@
         <v>6</v>
       </c>
       <c r="AE58">
-        <v>0.9736719077918679</v>
+        <v>1.614374462143158</v>
       </c>
     </row>
     <row r="59">
@@ -6717,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="AE59">
-        <v>0.8450503307394683</v>
+        <v>2.348788754865925</v>
       </c>
     </row>
     <row r="60">
@@ -6824,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="AE60">
-        <v>0.2674096140544862</v>
+        <v>0.8379288174911167</v>
       </c>
     </row>
     <row r="61">
@@ -6931,7 +6931,7 @@
         <v>7</v>
       </c>
       <c r="AE61">
-        <v>0.7259848539251834</v>
+        <v>1.393944338795104</v>
       </c>
     </row>
     <row r="62">
@@ -7038,7 +7038,7 @@
         <v>7</v>
       </c>
       <c r="AE62">
-        <v>0.7514948647003621</v>
+        <v>1.058872310951936</v>
       </c>
     </row>
     <row r="63">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="AE63">
-        <v>0.1726272224914283</v>
+        <v>4.091453072856019</v>
       </c>
     </row>
     <row r="64">
@@ -7252,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="AE64">
-        <v>0.4168718855362386</v>
+        <v>0.8091266568237989</v>
       </c>
     </row>
     <row r="65">
@@ -7359,7 +7359,7 @@
         <v>2</v>
       </c>
       <c r="AE65">
-        <v>0.8821355006657541</v>
+        <v>8.309911205330005</v>
       </c>
     </row>
     <row r="66">
@@ -7466,7 +7466,7 @@
         <v>7</v>
       </c>
       <c r="AE66">
-        <v>0.9540647100657225</v>
+        <v>2.01514642985481</v>
       </c>
     </row>
     <row r="67">
@@ -7573,7 +7573,7 @@
         <v>4</v>
       </c>
       <c r="AE67">
-        <v>0.554741571424529</v>
+        <v>0.9556365470980897</v>
       </c>
     </row>
     <row r="68">
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="AE68">
-        <v>0.4563089495059103</v>
+        <v>0.7801656787102211</v>
       </c>
     </row>
     <row r="69">
@@ -7787,7 +7787,7 @@
         <v>9</v>
       </c>
       <c r="AE69">
-        <v>0.03635889338329434</v>
+        <v>2.557473299243939</v>
       </c>
     </row>
     <row r="70">
@@ -7894,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="AE70">
-        <v>0.584709154907614</v>
+        <v>1.1965666984374</v>
       </c>
     </row>
     <row r="71">
@@ -8001,7 +8001,7 @@
         <v>5</v>
       </c>
       <c r="AE71">
-        <v>0.09657022426836193</v>
+        <v>0.3477316390363716</v>
       </c>
     </row>
     <row r="72">
@@ -8108,7 +8108,7 @@
         <v>6</v>
       </c>
       <c r="AE72">
-        <v>0.2314352663233876</v>
+        <v>0.2797891789910946</v>
       </c>
     </row>
     <row r="73">
@@ -8215,7 +8215,7 @@
         <v>9</v>
       </c>
       <c r="AE73">
-        <v>0.4705546936020255</v>
+        <v>2.853006980272691</v>
       </c>
     </row>
     <row r="74">
@@ -8322,7 +8322,7 @@
         <v>4</v>
       </c>
       <c r="AE74">
-        <v>0.796040857443586</v>
+        <v>3.803888887719643</v>
       </c>
     </row>
     <row r="75">
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="AE75">
-        <v>0.3045588175300509</v>
+        <v>0.9122731000202888</v>
       </c>
     </row>
     <row r="76">
@@ -8536,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="AE76">
-        <v>0.4830778939649463</v>
+        <v>2.046013053624059</v>
       </c>
     </row>
     <row r="77">
@@ -8643,7 +8643,7 @@
         <v>8</v>
       </c>
       <c r="AE77">
-        <v>0.4417676490265876</v>
+        <v>0.4429731025250154</v>
       </c>
     </row>
     <row r="78">
@@ -8750,7 +8750,7 @@
         <v>8</v>
       </c>
       <c r="AE78">
-        <v>0.244454676983878</v>
+        <v>1.332829403321044</v>
       </c>
     </row>
     <row r="79">
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="AE79">
-        <v>0.7623533103615046</v>
+        <v>0.3136117226837374</v>
       </c>
     </row>
     <row r="80">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="AE80">
-        <v>0.7119852977339178</v>
+        <v>0.7854681299283731</v>
       </c>
     </row>
     <row r="81">
@@ -9071,7 +9071,7 @@
         <v>8</v>
       </c>
       <c r="AE81">
-        <v>0.9929318267386407</v>
+        <v>1.374703664514216</v>
       </c>
     </row>
     <row r="82">
@@ -9178,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="AE82">
-        <v>0.2467864018399268</v>
+        <v>1.766929018492251</v>
       </c>
     </row>
     <row r="83">
@@ -9285,7 +9285,7 @@
         <v>7</v>
       </c>
       <c r="AE83">
-        <v>0.4552868753671646</v>
+        <v>1.867006992376816</v>
       </c>
     </row>
     <row r="84">
@@ -9392,7 +9392,7 @@
         <v>6</v>
       </c>
       <c r="AE84">
-        <v>0.9966761160176247</v>
+        <v>1.227300858762587</v>
       </c>
     </row>
     <row r="85">
@@ -9499,7 +9499,7 @@
         <v>3</v>
       </c>
       <c r="AE85">
-        <v>0.3141557793132961</v>
+        <v>0.8365779902156242</v>
       </c>
     </row>
     <row r="86">
@@ -9606,7 +9606,7 @@
         <v>6</v>
       </c>
       <c r="AE86">
-        <v>0.8566518297884613</v>
+        <v>1.2930872925624</v>
       </c>
     </row>
     <row r="87">
@@ -9713,7 +9713,7 @@
         <v>2</v>
       </c>
       <c r="AE87">
-        <v>0.4741887776181102</v>
+        <v>0.45864063596382</v>
       </c>
     </row>
     <row r="88">
@@ -9820,7 +9820,7 @@
         <v>2</v>
       </c>
       <c r="AE88">
-        <v>0.4281225493177772</v>
+        <v>0.5684369047532138</v>
       </c>
     </row>
     <row r="89">
@@ -9927,7 +9927,7 @@
         <v>7</v>
       </c>
       <c r="AE89">
-        <v>0.5728404894471169</v>
+        <v>4.367098504940783</v>
       </c>
     </row>
     <row r="90">
@@ -10034,7 +10034,7 @@
         <v>7</v>
       </c>
       <c r="AE90">
-        <v>0.06656350730918348</v>
+        <v>0.8895401179535858</v>
       </c>
     </row>
     <row r="91">
@@ -10141,7 +10141,7 @@
         <v>9</v>
       </c>
       <c r="AE91">
-        <v>0.5283324790652841</v>
+        <v>0.05732093268888811</v>
       </c>
     </row>
     <row r="92">
@@ -10248,7 +10248,7 @@
         <v>8</v>
       </c>
       <c r="AE92">
-        <v>0.7318868904840201</v>
+        <v>0.3322603741629204</v>
       </c>
     </row>
     <row r="93">
@@ -10355,7 +10355,7 @@
         <v>9</v>
       </c>
       <c r="AE93">
-        <v>0.009696043562144041</v>
+        <v>3.062301460643373</v>
       </c>
     </row>
     <row r="94">
@@ -10462,7 +10462,7 @@
         <v>9</v>
       </c>
       <c r="AE94">
-        <v>0.3180774238426238</v>
+        <v>1.698919176796843</v>
       </c>
     </row>
     <row r="95">
@@ -10569,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="AE95">
-        <v>0.9542321115732193</v>
+        <v>1.130002717937419</v>
       </c>
     </row>
     <row r="96">
@@ -10676,7 +10676,7 @@
         <v>10</v>
       </c>
       <c r="AE96">
-        <v>0.6854898526798934</v>
+        <v>1.163551519593605</v>
       </c>
     </row>
     <row r="97">
@@ -10783,7 +10783,7 @@
         <v>5</v>
       </c>
       <c r="AE97">
-        <v>0.4399654970038682</v>
+        <v>1.073517940023223</v>
       </c>
     </row>
     <row r="98">
@@ -10890,7 +10890,7 @@
         <v>10</v>
       </c>
       <c r="AE98">
-        <v>0.1275029676035047</v>
+        <v>0.2598691787891256</v>
       </c>
     </row>
     <row r="99">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="AE99">
-        <v>0.5035965526476502</v>
+        <v>0.6957554154850975</v>
       </c>
     </row>
     <row r="100">
@@ -11104,7 +11104,7 @@
         <v>6</v>
       </c>
       <c r="AE100">
-        <v>0.2921707308851182</v>
+        <v>0.8541423837462222</v>
       </c>
     </row>
     <row r="101">
@@ -11211,7 +11211,7 @@
         <v>9</v>
       </c>
       <c r="AE101">
-        <v>0.0347121711820364</v>
+        <v>1.257534529778155</v>
       </c>
     </row>
     <row r="102">
@@ -11318,7 +11318,7 @@
         <v>3</v>
       </c>
       <c r="AE102">
-        <v>0.1745548245962709</v>
+        <v>0.1982619795948744</v>
       </c>
     </row>
     <row r="103">
@@ -11425,7 +11425,7 @@
         <v>9</v>
       </c>
       <c r="AE103">
-        <v>0.1167627887334675</v>
+        <v>0.6933668485367239</v>
       </c>
     </row>
     <row r="104">
@@ -11532,7 +11532,7 @@
         <v>10</v>
       </c>
       <c r="AE104">
-        <v>0.7621774633880705</v>
+        <v>0.09629414047207931</v>
       </c>
     </row>
     <row r="105">
@@ -11639,7 +11639,7 @@
         <v>7</v>
       </c>
       <c r="AE105">
-        <v>0.7063013007864356</v>
+        <v>0.70632606118283</v>
       </c>
     </row>
     <row r="106">
@@ -11746,7 +11746,7 @@
         <v>10</v>
       </c>
       <c r="AE106">
-        <v>0.8900310646276921</v>
+        <v>0.5753424196516833</v>
       </c>
     </row>
     <row r="107">
@@ -11853,7 +11853,7 @@
         <v>4</v>
       </c>
       <c r="AE107">
-        <v>0.4099492537789047</v>
+        <v>0.8806714412062715</v>
       </c>
     </row>
     <row r="108">
@@ -11960,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="AE108">
-        <v>0.5527154058218002</v>
+        <v>1.196155308575836</v>
       </c>
     </row>
     <row r="109">
@@ -12067,7 +12067,7 @@
         <v>3</v>
       </c>
       <c r="AE109">
-        <v>0.1482531803194433</v>
+        <v>2.640575326095445</v>
       </c>
     </row>
     <row r="110">
@@ -12174,7 +12174,7 @@
         <v>8</v>
       </c>
       <c r="AE110">
-        <v>0.8046280087437481</v>
+        <v>8.872727512136896</v>
       </c>
     </row>
     <row r="111">
@@ -12281,7 +12281,7 @@
         <v>9</v>
       </c>
       <c r="AE111">
-        <v>0.312241222942248</v>
+        <v>2.096365370804468</v>
       </c>
     </row>
     <row r="112">
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="AE112">
-        <v>0.5033772548194975</v>
+        <v>2.578016462424817</v>
       </c>
     </row>
     <row r="113">
@@ -12495,7 +12495,7 @@
         <v>9</v>
       </c>
       <c r="AE113">
-        <v>0.5047614586073905</v>
+        <v>2.271318754616106</v>
       </c>
     </row>
     <row r="114">
@@ -12602,7 +12602,7 @@
         <v>3</v>
       </c>
       <c r="AE114">
-        <v>0.8612596339080483</v>
+        <v>0.6890659262352887</v>
       </c>
     </row>
     <row r="115">
@@ -12709,7 +12709,7 @@
         <v>10</v>
       </c>
       <c r="AE115">
-        <v>0.2109252931550145</v>
+        <v>2.634304211112927</v>
       </c>
     </row>
     <row r="116">
@@ -12816,7 +12816,7 @@
         <v>1</v>
       </c>
       <c r="AE116">
-        <v>0.01229258929379284</v>
+        <v>1.034491051305709</v>
       </c>
     </row>
     <row r="117">
@@ -12923,7 +12923,7 @@
         <v>3</v>
       </c>
       <c r="AE117">
-        <v>0.4774760270956904</v>
+        <v>0.5643902838224043</v>
       </c>
     </row>
     <row r="118">
@@ -13030,7 +13030,7 @@
         <v>5</v>
       </c>
       <c r="AE118">
-        <v>0.7031963940244168</v>
+        <v>2.407125563932473</v>
       </c>
     </row>
     <row r="119">
@@ -13137,7 +13137,7 @@
         <v>2</v>
       </c>
       <c r="AE119">
-        <v>0.8713577871676534</v>
+        <v>0.8604504565768112</v>
       </c>
     </row>
     <row r="120">
@@ -13244,7 +13244,7 @@
         <v>8</v>
       </c>
       <c r="AE120">
-        <v>0.3599386506248266</v>
+        <v>1.025487784224586</v>
       </c>
     </row>
     <row r="121">
@@ -13351,7 +13351,7 @@
         <v>1</v>
       </c>
       <c r="AE121">
-        <v>0.5273160496726632</v>
+        <v>0.7113041722633318</v>
       </c>
     </row>
     <row r="122">
@@ -13458,7 +13458,7 @@
         <v>7</v>
       </c>
       <c r="AE122">
-        <v>0.3592573227360845</v>
+        <v>0.2288693481254142</v>
       </c>
     </row>
     <row r="123">
@@ -13565,7 +13565,7 @@
         <v>7</v>
       </c>
       <c r="AE123">
-        <v>0.1899118321016431</v>
+        <v>0.8909269330742865</v>
       </c>
     </row>
     <row r="124">
@@ -13672,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="AE124">
-        <v>0.7143352148123085</v>
+        <v>0.8832541346933571</v>
       </c>
     </row>
     <row r="125">
@@ -13779,7 +13779,7 @@
         <v>2</v>
       </c>
       <c r="AE125">
-        <v>0.6676760884001851</v>
+        <v>0.5115685896972419</v>
       </c>
     </row>
     <row r="126">
@@ -13886,7 +13886,7 @@
         <v>3</v>
       </c>
       <c r="AE126">
-        <v>0.8776731994003057</v>
+        <v>0.5167155301378074</v>
       </c>
     </row>
     <row r="127">
@@ -13993,7 +13993,7 @@
         <v>5</v>
       </c>
       <c r="AE127">
-        <v>0.226173467701301</v>
+        <v>7.051218843551222</v>
       </c>
     </row>
     <row r="128">
@@ -14100,7 +14100,7 @@
         <v>10</v>
       </c>
       <c r="AE128">
-        <v>0.8075978488195688</v>
+        <v>15.2202839497154</v>
       </c>
     </row>
     <row r="129">
@@ -14207,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="AE129">
-        <v>0.1181369696278125</v>
+        <v>1.185524507288013</v>
       </c>
     </row>
     <row r="130">
@@ -14314,7 +14314,7 @@
         <v>6</v>
       </c>
       <c r="AE130">
-        <v>0.185811020899564</v>
+        <v>0.3018476135347906</v>
       </c>
     </row>
     <row r="131">
@@ -14421,7 +14421,7 @@
         <v>2</v>
       </c>
       <c r="AE131">
-        <v>0.1432057917118073</v>
+        <v>0.715559953098121</v>
       </c>
     </row>
     <row r="132">
@@ -14528,7 +14528,7 @@
         <v>9</v>
       </c>
       <c r="AE132">
-        <v>0.2570725551340729</v>
+        <v>1.146590033388604</v>
       </c>
     </row>
     <row r="133">
@@ -14635,7 +14635,7 @@
         <v>8</v>
       </c>
       <c r="AE133">
-        <v>0.6723656614776701</v>
+        <v>2.055359648897138</v>
       </c>
     </row>
     <row r="134">
@@ -14742,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="AE134">
-        <v>0.3306420603767037</v>
+        <v>1.460350278101677</v>
       </c>
     </row>
     <row r="135">
@@ -14849,7 +14849,7 @@
         <v>5</v>
       </c>
       <c r="AE135">
-        <v>0.5066433071624488</v>
+        <v>2.02782201371508</v>
       </c>
     </row>
     <row r="136">
@@ -14956,7 +14956,7 @@
         <v>4</v>
       </c>
       <c r="AE136">
-        <v>0.9103072918951511</v>
+        <v>0.6142895823538138</v>
       </c>
     </row>
     <row r="137">
@@ -15063,7 +15063,7 @@
         <v>7</v>
       </c>
       <c r="AE137">
-        <v>0.9055753825232387</v>
+        <v>0.3769698266194444</v>
       </c>
     </row>
     <row r="138">
@@ -15170,7 +15170,7 @@
         <v>4</v>
       </c>
       <c r="AE138">
-        <v>0.1248069384600967</v>
+        <v>0.8478242149845906</v>
       </c>
     </row>
     <row r="139">
@@ -15277,7 +15277,7 @@
         <v>9</v>
       </c>
       <c r="AE139">
-        <v>0.5155580579303205</v>
+        <v>2.588485539053288</v>
       </c>
     </row>
     <row r="140">
@@ -15384,7 +15384,7 @@
         <v>4</v>
       </c>
       <c r="AE140">
-        <v>0.6986051634885371</v>
+        <v>2.66956656451829</v>
       </c>
     </row>
     <row r="141">
@@ -15491,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="AE141">
-        <v>0.7711112301331013</v>
+        <v>6.123443468719992</v>
       </c>
     </row>
     <row r="142">
@@ -15598,7 +15598,7 @@
         <v>9</v>
       </c>
       <c r="AE142">
-        <v>0.5746933482587337</v>
+        <v>0.8610838890991902</v>
       </c>
     </row>
     <row r="143">
@@ -15705,7 +15705,7 @@
         <v>2</v>
       </c>
       <c r="AE143">
-        <v>0.1487339150626212</v>
+        <v>0.5354587246134129</v>
       </c>
     </row>
     <row r="144">
@@ -15812,7 +15812,7 @@
         <v>7</v>
       </c>
       <c r="AE144">
-        <v>0.898788396269083</v>
+        <v>0.4765767283248046</v>
       </c>
     </row>
     <row r="145">
@@ -15919,7 +15919,7 @@
         <v>6</v>
       </c>
       <c r="AE145">
-        <v>0.979725296376273</v>
+        <v>4.135436703239381</v>
       </c>
     </row>
     <row r="146">
@@ -16026,7 +16026,7 @@
         <v>9</v>
       </c>
       <c r="AE146">
-        <v>0.4233709280379117</v>
+        <v>3.022336499209363</v>
       </c>
     </row>
     <row r="147">
@@ -16133,7 +16133,7 @@
         <v>10</v>
       </c>
       <c r="AE147">
-        <v>0.9497398084495217</v>
+        <v>0.2997479640212496</v>
       </c>
     </row>
     <row r="148">
@@ -16240,7 +16240,7 @@
         <v>1</v>
       </c>
       <c r="AE148">
-        <v>0.7339831693097949</v>
+        <v>0.912729630693921</v>
       </c>
     </row>
     <row r="149">
@@ -16347,7 +16347,7 @@
         <v>7</v>
       </c>
       <c r="AE149">
-        <v>0.442826253362</v>
+        <v>1.441736838307987</v>
       </c>
     </row>
     <row r="150">
@@ -16454,7 +16454,7 @@
         <v>2</v>
       </c>
       <c r="AE150">
-        <v>0.2472099177539349</v>
+        <v>1.046333087083572</v>
       </c>
     </row>
     <row r="151">
@@ -16561,7 +16561,7 @@
         <v>7</v>
       </c>
       <c r="AE151">
-        <v>0.7807376263663173</v>
+        <v>3.453026459358747</v>
       </c>
     </row>
     <row r="152">
@@ -16668,7 +16668,7 @@
         <v>1</v>
       </c>
       <c r="AE152">
-        <v>0.2023895406164229</v>
+        <v>1.821967428626616</v>
       </c>
     </row>
     <row r="153">
@@ -16775,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="AE153">
-        <v>0.4197916460689157</v>
+        <v>0.9044258604322312</v>
       </c>
     </row>
     <row r="154">
@@ -16882,7 +16882,7 @@
         <v>7</v>
       </c>
       <c r="AE154">
-        <v>0.8523544995114207</v>
+        <v>0.5970724960365701</v>
       </c>
     </row>
     <row r="155">
@@ -16989,7 +16989,7 @@
         <v>7</v>
       </c>
       <c r="AE155">
-        <v>0.8331573400646448</v>
+        <v>8.468858028458996</v>
       </c>
     </row>
     <row r="156">
@@ -17096,7 +17096,7 @@
         <v>3</v>
       </c>
       <c r="AE156">
-        <v>0.5253567006438971</v>
+        <v>0.3594245865380822</v>
       </c>
     </row>
     <row r="157">
@@ -17203,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="AE157">
-        <v>0.5006609060801566</v>
+        <v>0.2389217502733576</v>
       </c>
     </row>
     <row r="158">
@@ -17310,7 +17310,7 @@
         <v>10</v>
       </c>
       <c r="AE158">
-        <v>0.1960364326369017</v>
+        <v>0.7232626252144039</v>
       </c>
     </row>
     <row r="159">
@@ -17417,7 +17417,7 @@
         <v>5</v>
       </c>
       <c r="AE159">
-        <v>0.2965302907396108</v>
+        <v>1.207840096667843</v>
       </c>
     </row>
     <row r="160">
@@ -17524,7 +17524,7 @@
         <v>8</v>
       </c>
       <c r="AE160">
-        <v>0.2057724380865693</v>
+        <v>2.27300894622218</v>
       </c>
     </row>
     <row r="161">
@@ -17631,7 +17631,7 @@
         <v>6</v>
       </c>
       <c r="AE161">
-        <v>0.9582022335380316</v>
+        <v>0.764265455045873</v>
       </c>
     </row>
     <row r="162">
@@ -17738,7 +17738,7 @@
         <v>6</v>
       </c>
       <c r="AE162">
-        <v>0.2627259825821966</v>
+        <v>8.852364689014042</v>
       </c>
     </row>
     <row r="163">
@@ -17845,7 +17845,7 @@
         <v>2</v>
       </c>
       <c r="AE163">
-        <v>0.2049188914243132</v>
+        <v>1.098739859776956</v>
       </c>
     </row>
     <row r="164">
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AE164">
-        <v>0.692320309812203</v>
+        <v>3.737703845744067</v>
       </c>
     </row>
     <row r="165">
@@ -18059,7 +18059,7 @@
         <v>4</v>
       </c>
       <c r="AE165">
-        <v>0.9488923845347017</v>
+        <v>0.3356511192140805</v>
       </c>
     </row>
     <row r="166">
@@ -18166,7 +18166,7 @@
         <v>10</v>
       </c>
       <c r="AE166">
-        <v>0.440174451097846</v>
+        <v>1.863071084358805</v>
       </c>
     </row>
     <row r="167">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="AE167">
-        <v>0.8487854457926005</v>
+        <v>2.146778390832</v>
       </c>
     </row>
     <row r="168">
@@ -18380,7 +18380,7 @@
         <v>2</v>
       </c>
       <c r="AE168">
-        <v>0.176335766678676</v>
+        <v>0.1067341687901329</v>
       </c>
     </row>
     <row r="169">
@@ -18487,7 +18487,7 @@
         <v>10</v>
       </c>
       <c r="AE169">
-        <v>0.8201084979809821</v>
+        <v>0.8447244294271705</v>
       </c>
     </row>
     <row r="170">
@@ -18594,7 +18594,7 @@
         <v>4</v>
       </c>
       <c r="AE170">
-        <v>0.3083170943427831</v>
+        <v>1.262508272921965</v>
       </c>
     </row>
     <row r="171">
@@ -18701,7 +18701,7 @@
         <v>9</v>
       </c>
       <c r="AE171">
-        <v>0.2491696430370212</v>
+        <v>1.488893683707457</v>
       </c>
     </row>
     <row r="172">
@@ -18808,7 +18808,7 @@
         <v>5</v>
       </c>
       <c r="AE172">
-        <v>0.3484739668201655</v>
+        <v>1.729925885460194</v>
       </c>
     </row>
     <row r="173">
@@ -18915,7 +18915,7 @@
         <v>10</v>
       </c>
       <c r="AE173">
-        <v>0.07679605227895081</v>
+        <v>3.37148057236817</v>
       </c>
     </row>
     <row r="174">
@@ -19022,7 +19022,7 @@
         <v>4</v>
       </c>
       <c r="AE174">
-        <v>0.6444201429840177</v>
+        <v>0.1649950993226001</v>
       </c>
     </row>
     <row r="175">
@@ -19129,7 +19129,7 @@
         <v>5</v>
       </c>
       <c r="AE175">
-        <v>0.9730700522195548</v>
+        <v>0.4083738441362425</v>
       </c>
     </row>
     <row r="176">
@@ -19236,7 +19236,7 @@
         <v>9</v>
       </c>
       <c r="AE176">
-        <v>0.9270653380081058</v>
+        <v>2.973637204241862</v>
       </c>
     </row>
     <row r="177">
@@ -19343,7 +19343,7 @@
         <v>1</v>
       </c>
       <c r="AE177">
-        <v>0.8727294215932488</v>
+        <v>0.256191793456056</v>
       </c>
     </row>
     <row r="178">
@@ -19450,7 +19450,7 @@
         <v>4</v>
       </c>
       <c r="AE178">
-        <v>0.7960680783726275</v>
+        <v>2.174327577036827</v>
       </c>
     </row>
     <row r="179">
@@ -19557,7 +19557,7 @@
         <v>5</v>
       </c>
       <c r="AE179">
-        <v>0.06402468751184642</v>
+        <v>1.063729088535587</v>
       </c>
     </row>
     <row r="180">
@@ -19664,7 +19664,7 @@
         <v>4</v>
       </c>
       <c r="AE180">
-        <v>0.164196552708745</v>
+        <v>0.3844287406230613</v>
       </c>
     </row>
     <row r="181">
@@ -19771,7 +19771,7 @@
         <v>1</v>
       </c>
       <c r="AE181">
-        <v>0.1303827662486583</v>
+        <v>0.1381275964909824</v>
       </c>
     </row>
     <row r="182">
@@ -19878,7 +19878,7 @@
         <v>8</v>
       </c>
       <c r="AE182">
-        <v>0.1547614361625165</v>
+        <v>0.2712406229776896</v>
       </c>
     </row>
     <row r="183">
@@ -19985,7 +19985,7 @@
         <v>8</v>
       </c>
       <c r="AE183">
-        <v>0.8852101350203156</v>
+        <v>4.391244076432966</v>
       </c>
     </row>
     <row r="184">
@@ -20092,7 +20092,7 @@
         <v>7</v>
       </c>
       <c r="AE184">
-        <v>0.726887050550431</v>
+        <v>1.428561444694369</v>
       </c>
     </row>
     <row r="185">
@@ -20199,7 +20199,7 @@
         <v>5</v>
       </c>
       <c r="AE185">
-        <v>0.7778137167915702</v>
+        <v>0.5011866751154237</v>
       </c>
     </row>
     <row r="186">
@@ -20306,7 +20306,7 @@
         <v>5</v>
       </c>
       <c r="AE186">
-        <v>0.45188964670524</v>
+        <v>2.594336436526174</v>
       </c>
     </row>
     <row r="187">
@@ -20413,7 +20413,7 @@
         <v>6</v>
       </c>
       <c r="AE187">
-        <v>0.7862722515128553</v>
+        <v>0.8857916662717976</v>
       </c>
     </row>
     <row r="188">
@@ -20520,7 +20520,7 @@
         <v>2</v>
       </c>
       <c r="AE188">
-        <v>0.5145939991343766</v>
+        <v>1.567789516968509</v>
       </c>
     </row>
     <row r="189">
@@ -20627,7 +20627,7 @@
         <v>3</v>
       </c>
       <c r="AE189">
-        <v>0.9840639380272478</v>
+        <v>3.330105285631224</v>
       </c>
     </row>
     <row r="190">
@@ -20734,7 +20734,7 @@
         <v>1</v>
       </c>
       <c r="AE190">
-        <v>0.7823837385512888</v>
+        <v>1.527107128319393</v>
       </c>
     </row>
     <row r="191">
@@ -20841,7 +20841,7 @@
         <v>3</v>
       </c>
       <c r="AE191">
-        <v>0.2052680989727378</v>
+        <v>0.9171155992745246</v>
       </c>
     </row>
     <row r="192">
@@ -20948,7 +20948,7 @@
         <v>4</v>
       </c>
       <c r="AE192">
-        <v>0.06674610287882388</v>
+        <v>0.9243546888940761</v>
       </c>
     </row>
     <row r="193">
@@ -21055,7 +21055,7 @@
         <v>4</v>
       </c>
       <c r="AE193">
-        <v>0.7369032429996878</v>
+        <v>0.5416193476532741</v>
       </c>
     </row>
     <row r="194">
@@ -21162,7 +21162,7 @@
         <v>3</v>
       </c>
       <c r="AE194">
-        <v>0.09906254289671779</v>
+        <v>0.8953272542821048</v>
       </c>
     </row>
     <row r="195">
@@ -21269,7 +21269,7 @@
         <v>10</v>
       </c>
       <c r="AE195">
-        <v>0.6179778585210443</v>
+        <v>0.830085916295718</v>
       </c>
     </row>
     <row r="196">
@@ -21376,7 +21376,7 @@
         <v>10</v>
       </c>
       <c r="AE196">
-        <v>0.9225760390982032</v>
+        <v>4.120261032823093</v>
       </c>
     </row>
     <row r="197">
@@ -21483,7 +21483,7 @@
         <v>6</v>
       </c>
       <c r="AE197">
-        <v>0.6117427607532591</v>
+        <v>3.513861883872575</v>
       </c>
     </row>
     <row r="198">
@@ -21590,7 +21590,7 @@
         <v>3</v>
       </c>
       <c r="AE198">
-        <v>0.9778891571331769</v>
+        <v>0.4107407850134692</v>
       </c>
     </row>
     <row r="199">
@@ -21697,7 +21697,7 @@
         <v>8</v>
       </c>
       <c r="AE199">
-        <v>0.3032543875742704</v>
+        <v>1.350109735945305</v>
       </c>
     </row>
     <row r="200">
@@ -21804,7 +21804,7 @@
         <v>2</v>
       </c>
       <c r="AE200">
-        <v>0.5257377787493169</v>
+        <v>1.380604647572787</v>
       </c>
     </row>
     <row r="201">
@@ -21911,7 +21911,7 @@
         <v>4</v>
       </c>
       <c r="AE201">
-        <v>0.589511479716748</v>
+        <v>2.422839858676731</v>
       </c>
     </row>
     <row r="202">
@@ -22018,7 +22018,7 @@
         <v>3</v>
       </c>
       <c r="AE202">
-        <v>0.2283830700907856</v>
+        <v>1.550535613043594</v>
       </c>
     </row>
     <row r="203">
@@ -22125,7 +22125,7 @@
         <v>10</v>
       </c>
       <c r="AE203">
-        <v>0.9868208279367536</v>
+        <v>2.187134300792802</v>
       </c>
     </row>
     <row r="204">
@@ -22232,7 +22232,7 @@
         <v>8</v>
       </c>
       <c r="AE204">
-        <v>0.1395212167408317</v>
+        <v>0.7610371305846709</v>
       </c>
     </row>
     <row r="205">
@@ -22339,7 +22339,7 @@
         <v>10</v>
       </c>
       <c r="AE205">
-        <v>0.4682878255844116</v>
+        <v>2.501971774542276</v>
       </c>
     </row>
     <row r="206">
@@ -22446,7 +22446,7 @@
         <v>3</v>
       </c>
       <c r="AE206">
-        <v>0.4868484477046877</v>
+        <v>1.378340014735082</v>
       </c>
     </row>
     <row r="207">
@@ -22553,7 +22553,7 @@
         <v>7</v>
       </c>
       <c r="AE207">
-        <v>0.4892539659049362</v>
+        <v>0.4820882805536653</v>
       </c>
     </row>
     <row r="208">
@@ -22660,7 +22660,7 @@
         <v>5</v>
       </c>
       <c r="AE208">
-        <v>0.6746626798994839</v>
+        <v>0.1790422423558117</v>
       </c>
     </row>
     <row r="209">
@@ -22767,7 +22767,7 @@
         <v>1</v>
       </c>
       <c r="AE209">
-        <v>0.9068068668711931</v>
+        <v>1.018269589761427</v>
       </c>
     </row>
     <row r="210">
@@ -22874,7 +22874,7 @@
         <v>6</v>
       </c>
       <c r="AE210">
-        <v>0.09738479624502361</v>
+        <v>1.079352109437588</v>
       </c>
     </row>
     <row r="211">
@@ -22981,7 +22981,7 @@
         <v>1</v>
       </c>
       <c r="AE211">
-        <v>0.5023645763285458</v>
+        <v>0.9621926640627556</v>
       </c>
     </row>
     <row r="212">
@@ -23088,7 +23088,7 @@
         <v>7</v>
       </c>
       <c r="AE212">
-        <v>0.7105226379353553</v>
+        <v>1.3249738841168</v>
       </c>
     </row>
     <row r="213">
@@ -23195,7 +23195,7 @@
         <v>3</v>
       </c>
       <c r="AE213">
-        <v>0.8742555573116988</v>
+        <v>0.5834052005438354</v>
       </c>
     </row>
     <row r="214">
@@ -23302,7 +23302,7 @@
         <v>4</v>
       </c>
       <c r="AE214">
-        <v>0.004930358147248626</v>
+        <v>1.448709675559962</v>
       </c>
     </row>
     <row r="215">
@@ -23409,7 +23409,7 @@
         <v>6</v>
       </c>
       <c r="AE215">
-        <v>0.5976691721007228</v>
+        <v>2.512621402653106</v>
       </c>
     </row>
     <row r="216">
@@ -23516,7 +23516,7 @@
         <v>3</v>
       </c>
       <c r="AE216">
-        <v>0.8301248142961413</v>
+        <v>0.3967246196433281</v>
       </c>
     </row>
     <row r="217">
@@ -23623,7 +23623,7 @@
         <v>1</v>
       </c>
       <c r="AE217">
-        <v>0.2303433711640537</v>
+        <v>0.8489783200379745</v>
       </c>
     </row>
     <row r="218">
@@ -23730,7 +23730,7 @@
         <v>2</v>
       </c>
       <c r="AE218">
-        <v>0.3641522158868611</v>
+        <v>0.8894931668561167</v>
       </c>
     </row>
     <row r="219">
@@ -23837,7 +23837,7 @@
         <v>5</v>
       </c>
       <c r="AE219">
-        <v>0.9477904951199889</v>
+        <v>2.1059216892272</v>
       </c>
     </row>
     <row r="220">
@@ -23944,7 +23944,7 @@
         <v>5</v>
       </c>
       <c r="AE220">
-        <v>0.008397622732445598</v>
+        <v>0.5056142579708125</v>
       </c>
     </row>
     <row r="221">
@@ -24051,7 +24051,7 @@
         <v>3</v>
       </c>
       <c r="AE221">
-        <v>0.3573885904625058</v>
+        <v>2.01495252091127</v>
       </c>
     </row>
     <row r="222">
@@ -24158,7 +24158,7 @@
         <v>1</v>
       </c>
       <c r="AE222">
-        <v>0.7035006755031645</v>
+        <v>3.557277460081458</v>
       </c>
     </row>
     <row r="223">
@@ -24265,7 +24265,7 @@
         <v>8</v>
       </c>
       <c r="AE223">
-        <v>0.5066007147543132</v>
+        <v>0.1087427289107963</v>
       </c>
     </row>
     <row r="224">
@@ -24372,7 +24372,7 @@
         <v>6</v>
       </c>
       <c r="AE224">
-        <v>0.8141148954164237</v>
+        <v>0.4611386983275863</v>
       </c>
     </row>
     <row r="225">
@@ -24479,7 +24479,7 @@
         <v>6</v>
       </c>
       <c r="AE225">
-        <v>0.3481493187136948</v>
+        <v>2.790553433324888</v>
       </c>
     </row>
     <row r="226">
@@ -24586,7 +24586,7 @@
         <v>1</v>
       </c>
       <c r="AE226">
-        <v>0.9371943334117532</v>
+        <v>1.128756797736299</v>
       </c>
     </row>
     <row r="227">
@@ -24693,7 +24693,7 @@
         <v>10</v>
       </c>
       <c r="AE227">
-        <v>0.8868277866858989</v>
+        <v>0.1251648206532026</v>
       </c>
     </row>
     <row r="228">
@@ -24800,7 +24800,7 @@
         <v>1</v>
       </c>
       <c r="AE228">
-        <v>0.9081290422473103</v>
+        <v>1.174011434165875</v>
       </c>
     </row>
     <row r="229">
@@ -24907,7 +24907,7 @@
         <v>7</v>
       </c>
       <c r="AE229">
-        <v>0.8775455586146563</v>
+        <v>3.113402229984107</v>
       </c>
     </row>
     <row r="230">
@@ -25014,7 +25014,7 @@
         <v>10</v>
       </c>
       <c r="AE230">
-        <v>0.8115393223706633</v>
+        <v>0.8877169573757535</v>
       </c>
     </row>
     <row r="231">
@@ -25121,7 +25121,7 @@
         <v>10</v>
       </c>
       <c r="AE231">
-        <v>0.382355097681284</v>
+        <v>1.797725293719734</v>
       </c>
     </row>
     <row r="232">
@@ -25228,7 +25228,7 @@
         <v>7</v>
       </c>
       <c r="AE232">
-        <v>0.433547803433612</v>
+        <v>0.5315745525084105</v>
       </c>
     </row>
     <row r="233">
@@ -25335,7 +25335,7 @@
         <v>5</v>
       </c>
       <c r="AE233">
-        <v>0.3175415836740285</v>
+        <v>3.409412206512683</v>
       </c>
     </row>
     <row r="234">
@@ -25442,7 +25442,7 @@
         <v>10</v>
       </c>
       <c r="AE234">
-        <v>0.8284612880088389</v>
+        <v>0.4425758105783534</v>
       </c>
     </row>
     <row r="235">
@@ -25549,7 +25549,7 @@
         <v>10</v>
       </c>
       <c r="AE235">
-        <v>0.6858496996574104</v>
+        <v>1.894991720781374</v>
       </c>
     </row>
     <row r="236">
@@ -25656,7 +25656,7 @@
         <v>9</v>
       </c>
       <c r="AE236">
-        <v>0.721440366236493</v>
+        <v>2.235009950977102</v>
       </c>
     </row>
     <row r="237">
@@ -25763,7 +25763,7 @@
         <v>8</v>
       </c>
       <c r="AE237">
-        <v>0.1906352294608951</v>
+        <v>0.1882555378315725</v>
       </c>
     </row>
     <row r="238">
@@ -25870,7 +25870,7 @@
         <v>7</v>
       </c>
       <c r="AE238">
-        <v>0.07903485908173025</v>
+        <v>0.3448912191165346</v>
       </c>
     </row>
     <row r="239">
@@ -25977,7 +25977,7 @@
         <v>1</v>
       </c>
       <c r="AE239">
-        <v>0.03218506672419608</v>
+        <v>1.502315859216084</v>
       </c>
     </row>
     <row r="240">
@@ -26084,7 +26084,7 @@
         <v>7</v>
       </c>
       <c r="AE240">
-        <v>0.897764983586967</v>
+        <v>0.5271404673845685</v>
       </c>
     </row>
     <row r="241">
@@ -26191,7 +26191,7 @@
         <v>5</v>
       </c>
       <c r="AE241">
-        <v>0.3761628130450845</v>
+        <v>0.6594674785984346</v>
       </c>
     </row>
     <row r="242">
@@ -26298,7 +26298,7 @@
         <v>4</v>
       </c>
       <c r="AE242">
-        <v>0.3204695780295879</v>
+        <v>1.062334337015505</v>
       </c>
     </row>
     <row r="243">
@@ -26405,7 +26405,7 @@
         <v>1</v>
       </c>
       <c r="AE243">
-        <v>0.801279476378113</v>
+        <v>0.3522654569493834</v>
       </c>
     </row>
     <row r="244">
@@ -26512,7 +26512,7 @@
         <v>6</v>
       </c>
       <c r="AE244">
-        <v>0.393356692744419</v>
+        <v>0.4232484803489138</v>
       </c>
     </row>
     <row r="245">
@@ -26619,7 +26619,7 @@
         <v>2</v>
       </c>
       <c r="AE245">
-        <v>0.01270907977595925</v>
+        <v>0.6034299747385948</v>
       </c>
     </row>
     <row r="246">
@@ -26726,7 +26726,7 @@
         <v>2</v>
       </c>
       <c r="AE246">
-        <v>0.1692354378756136</v>
+        <v>0.9843855974067968</v>
       </c>
     </row>
     <row r="247">
@@ -26833,7 +26833,7 @@
         <v>4</v>
       </c>
       <c r="AE247">
-        <v>0.1858314448036253</v>
+        <v>1.249536641512172</v>
       </c>
     </row>
     <row r="248">
@@ -26940,7 +26940,7 @@
         <v>4</v>
       </c>
       <c r="AE248">
-        <v>0.880437099840492</v>
+        <v>1.716464317386949</v>
       </c>
     </row>
     <row r="249">
@@ -27047,7 +27047,7 @@
         <v>5</v>
       </c>
       <c r="AE249">
-        <v>0.4006526747252792</v>
+        <v>1.036926082621406</v>
       </c>
     </row>
     <row r="250">
@@ -27154,7 +27154,7 @@
         <v>10</v>
       </c>
       <c r="AE250">
-        <v>0.09061780944466591</v>
+        <v>0.7089566780164303</v>
       </c>
     </row>
     <row r="251">
@@ -27261,7 +27261,7 @@
         <v>9</v>
       </c>
       <c r="AE251">
-        <v>0.8639789612498134</v>
+        <v>0.2641969882320961</v>
       </c>
     </row>
     <row r="252">
@@ -27368,7 +27368,7 @@
         <v>6</v>
       </c>
       <c r="AE252">
-        <v>0.6849924633279443</v>
+        <v>0.2881032545041622</v>
       </c>
     </row>
     <row r="253">
@@ -27475,7 +27475,7 @@
         <v>3</v>
       </c>
       <c r="AE253">
-        <v>0.5678640929982066</v>
+        <v>1.220128033034249</v>
       </c>
     </row>
     <row r="254">
@@ -27582,7 +27582,7 @@
         <v>10</v>
       </c>
       <c r="AE254">
-        <v>0.6309467928949744</v>
+        <v>1.292030469833415</v>
       </c>
     </row>
     <row r="255">
@@ -27689,7 +27689,7 @@
         <v>7</v>
       </c>
       <c r="AE255">
-        <v>0.3854807908646762</v>
+        <v>0.9582686243344403</v>
       </c>
     </row>
     <row r="256">
@@ -27796,7 +27796,7 @@
         <v>3</v>
       </c>
       <c r="AE256">
-        <v>0.6904046111740172</v>
+        <v>3.931300534460386</v>
       </c>
     </row>
     <row r="257">
@@ -27903,7 +27903,7 @@
         <v>8</v>
       </c>
       <c r="AE257">
-        <v>0.6905119027942419</v>
+        <v>0.5508145734739143</v>
       </c>
     </row>
     <row r="258">
@@ -28010,7 +28010,7 @@
         <v>8</v>
       </c>
       <c r="AE258">
-        <v>0.9983068038709462</v>
+        <v>0.2145830708172287</v>
       </c>
     </row>
     <row r="259">
@@ -28117,7 +28117,7 @@
         <v>7</v>
       </c>
       <c r="AE259">
-        <v>0.7897766188252717</v>
+        <v>1.078329819874766</v>
       </c>
     </row>
     <row r="260">
@@ -28224,7 +28224,7 @@
         <v>3</v>
       </c>
       <c r="AE260">
-        <v>0.216776181012392</v>
+        <v>1.438508520741971</v>
       </c>
     </row>
   </sheetData>

--- a/dados_moscas.xlsx
+++ b/dados_moscas.xlsx
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>1.451195391881716</v>
+        <v>0.1840715731500071</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="AE3">
-        <v>0.7729929568210693</v>
+        <v>-0.1280360659672041</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="AE4">
-        <v>2.323096184762113</v>
+        <v>0.3981516366661616</v>
       </c>
     </row>
     <row r="5">
@@ -939,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="AE5">
-        <v>1.118957045121186</v>
+        <v>0.05613943208291072</v>
       </c>
     </row>
     <row r="6">
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="AE6">
-        <v>0.3063682833101702</v>
+        <v>-0.5309618470928088</v>
       </c>
     </row>
     <row r="7">
@@ -1153,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="AE7">
-        <v>1.787356196486294</v>
+        <v>0.2824741945356051</v>
       </c>
     </row>
     <row r="8">
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="AE8">
-        <v>1.151991558825854</v>
+        <v>0.07062832481962988</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="AE9">
-        <v>4.371314876503607</v>
+        <v>0.6276516931172957</v>
       </c>
     </row>
     <row r="10">
@@ -1474,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="AE10">
-        <v>0.5815462930000187</v>
+        <v>-0.26458517771631</v>
       </c>
     </row>
     <row r="11">
@@ -1581,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="AE11">
-        <v>1.022246410033282</v>
+        <v>0.01100084041336791</v>
       </c>
     </row>
     <row r="12">
@@ -1688,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="AE12">
-        <v>1.11089713878357</v>
+        <v>0.052535548391276</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="AE13">
-        <v>0.7319503538542909</v>
+        <v>-0.1547675114065424</v>
       </c>
     </row>
     <row r="14">
@@ -1902,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="AE14">
-        <v>1.447823425881877</v>
+        <v>0.1829476019989225</v>
       </c>
     </row>
     <row r="15">
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AE15">
-        <v>1.074500856765508</v>
+        <v>0.03591266618306799</v>
       </c>
     </row>
     <row r="16">
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="AE16">
-        <v>0.6295925013637005</v>
+        <v>-0.2273006891761772</v>
       </c>
     </row>
     <row r="17">
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="AE17">
-        <v>0.5763175005044396</v>
+        <v>-0.2687799249579968</v>
       </c>
     </row>
     <row r="18">
@@ -2330,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="AE18">
-        <v>0.6207243615684914</v>
+        <v>-0.2340161272484708</v>
       </c>
     </row>
     <row r="19">
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="AE19">
-        <v>2.075910402977262</v>
+        <v>0.3497860021981971</v>
       </c>
     </row>
     <row r="20">
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0.5920673219831879</v>
+        <v>-0.2562282840581536</v>
       </c>
     </row>
     <row r="21">
@@ -2651,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="AE21">
-        <v>1.163447093550406</v>
+        <v>0.07554938322165072</v>
       </c>
     </row>
     <row r="22">
@@ -2758,7 +2758,7 @@
         <v>6</v>
       </c>
       <c r="AE22">
-        <v>1.050950029729788</v>
+        <v>0.02484216045795157</v>
       </c>
     </row>
     <row r="23">
@@ -2865,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="AE23">
-        <v>1.515175493836536</v>
+        <v>0.2048268580458816</v>
       </c>
     </row>
     <row r="24">
@@ -2972,7 +2972,7 @@
         <v>7</v>
       </c>
       <c r="AE24">
-        <v>0.3807705352171408</v>
+        <v>-0.4484665981704765</v>
       </c>
     </row>
     <row r="25">
@@ -3079,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="AE25">
-        <v>0.5569587838496312</v>
+        <v>-0.28455551986735</v>
       </c>
     </row>
     <row r="26">
@@ -3186,7 +3186,7 @@
         <v>10</v>
       </c>
       <c r="AE26">
-        <v>0.6307304424457625</v>
+        <v>-0.2264442656754531</v>
       </c>
     </row>
     <row r="27">
@@ -3293,7 +3293,7 @@
         <v>7</v>
       </c>
       <c r="AE27">
-        <v>2.977425889079508</v>
+        <v>0.4971622210507465</v>
       </c>
     </row>
     <row r="28">
@@ -3400,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="AE28">
-        <v>0.4295598340981966</v>
+        <v>-0.3990320323050009</v>
       </c>
     </row>
     <row r="29">
@@ -3507,7 +3507,7 @@
         <v>5</v>
       </c>
       <c r="AE29">
-        <v>0.9237894133714976</v>
+        <v>-0.0396148279529937</v>
       </c>
     </row>
     <row r="30">
@@ -3614,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="AE30">
-        <v>8.605629408967721</v>
+        <v>0.7917887610641299</v>
       </c>
     </row>
     <row r="31">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="AE31">
-        <v>0.4030728874284288</v>
+        <v>-0.4254426964700511</v>
       </c>
     </row>
     <row r="32">
@@ -3828,7 +3828,7 @@
         <v>9</v>
       </c>
       <c r="AE32">
-        <v>1.449214373267588</v>
+        <v>0.1834116189136496</v>
       </c>
     </row>
     <row r="33">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="AE33">
-        <v>0.4688009466027624</v>
+        <v>-0.3616548958699035</v>
       </c>
     </row>
     <row r="34">
@@ -4042,7 +4042,7 @@
         <v>7</v>
       </c>
       <c r="AE34">
-        <v>0.02362568232738742</v>
+        <v>-0.9538392153786717</v>
       </c>
     </row>
     <row r="35">
@@ -4149,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="AE35">
-        <v>1.463809631147603</v>
+        <v>0.1882489723573197</v>
       </c>
     </row>
     <row r="36">
@@ -4256,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="AE36">
-        <v>0.5874524945581763</v>
+        <v>-0.2598802212072777</v>
       </c>
     </row>
     <row r="37">
@@ -4363,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="AE37">
-        <v>1.517225390485845</v>
+        <v>0.2054744054468705</v>
       </c>
     </row>
     <row r="38">
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>6.52284766236202</v>
+        <v>0.734143227436824</v>
       </c>
     </row>
     <row r="39">
@@ -4577,7 +4577,7 @@
         <v>10</v>
       </c>
       <c r="AE39">
-        <v>0.4358059951058447</v>
+        <v>-0.3929458484066047</v>
       </c>
     </row>
     <row r="40">
@@ -4684,7 +4684,7 @@
         <v>4</v>
       </c>
       <c r="AE40">
-        <v>0.7440437745330168</v>
+        <v>-0.1467602070570262</v>
       </c>
     </row>
     <row r="41">
@@ -4791,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="AE41">
-        <v>0.3850434763910596</v>
+        <v>-0.4439979929087156</v>
       </c>
     </row>
     <row r="42">
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="AE42">
-        <v>0.513125664041537</v>
+        <v>-0.3217672844554289</v>
       </c>
     </row>
     <row r="43">
@@ -5005,7 +5005,7 @@
         <v>9</v>
       </c>
       <c r="AE43">
-        <v>1.165123248833357</v>
+        <v>0.0762650573921515</v>
       </c>
     </row>
     <row r="44">
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="AE44">
-        <v>2.106741543881224</v>
+        <v>0.3562386919700382</v>
       </c>
     </row>
     <row r="45">
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="AE45">
-        <v>1.440740270542127</v>
+        <v>0.1805764734009292</v>
       </c>
     </row>
     <row r="46">
@@ -5326,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="AE46">
-        <v>19.62121672325917</v>
+        <v>0.9030125124603268</v>
       </c>
     </row>
     <row r="47">
@@ -5433,7 +5433,7 @@
         <v>5</v>
       </c>
       <c r="AE47">
-        <v>1.126952617498542</v>
+        <v>0.05968756259735031</v>
       </c>
     </row>
     <row r="48">
@@ -5540,7 +5540,7 @@
         <v>9</v>
       </c>
       <c r="AE48">
-        <v>0.2519242683300516</v>
+        <v>-0.5975407223855567</v>
       </c>
     </row>
     <row r="49">
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="AE49">
-        <v>0.4131638729533652</v>
+        <v>-0.4152640314956598</v>
       </c>
     </row>
     <row r="50">
@@ -5754,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="AE50">
-        <v>1.590463952011851</v>
+        <v>0.2279375289330989</v>
       </c>
     </row>
     <row r="51">
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="AE51">
-        <v>2.874008817233549</v>
+        <v>0.4837389137828006</v>
       </c>
     </row>
     <row r="52">
@@ -5968,7 +5968,7 @@
         <v>3</v>
       </c>
       <c r="AE52">
-        <v>1.224481434648475</v>
+        <v>0.1009140517659338</v>
       </c>
     </row>
     <row r="53">
@@ -6075,7 +6075,7 @@
         <v>10</v>
       </c>
       <c r="AE53">
-        <v>0.9003571527116762</v>
+        <v>-0.05243374759641395</v>
       </c>
     </row>
     <row r="54">
@@ -6182,7 +6182,7 @@
         <v>7</v>
       </c>
       <c r="AE54">
-        <v>0.481114686537072</v>
+        <v>-0.3503343246673967</v>
       </c>
     </row>
     <row r="55">
@@ -6289,7 +6289,7 @@
         <v>9</v>
       </c>
       <c r="AE55">
-        <v>1.673302712103901</v>
+        <v>0.2518617547707527</v>
       </c>
     </row>
     <row r="56">
@@ -6396,7 +6396,7 @@
         <v>7</v>
       </c>
       <c r="AE56">
-        <v>2.262888995353567</v>
+        <v>0.3870462639556392</v>
       </c>
     </row>
     <row r="57">
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="AE57">
-        <v>5.316613489167693</v>
+        <v>0.6833746431644452</v>
       </c>
     </row>
     <row r="58">
@@ -6610,7 +6610,7 @@
         <v>6</v>
       </c>
       <c r="AE58">
-        <v>1.614374462143158</v>
+        <v>0.234998647301473</v>
       </c>
     </row>
     <row r="59">
@@ -6717,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="AE59">
-        <v>2.348788754865925</v>
+        <v>0.4027691364246493</v>
       </c>
     </row>
     <row r="60">
@@ -6824,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="AE60">
-        <v>0.8379288174911167</v>
+        <v>-0.08818142518169997</v>
       </c>
     </row>
     <row r="61">
@@ -6931,7 +6931,7 @@
         <v>7</v>
       </c>
       <c r="AE61">
-        <v>1.393944338795104</v>
+        <v>0.1645586876900322</v>
       </c>
     </row>
     <row r="62">
@@ -7038,7 +7038,7 @@
         <v>7</v>
       </c>
       <c r="AE62">
-        <v>1.058872310951936</v>
+        <v>0.028594444948709</v>
       </c>
     </row>
     <row r="63">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="AE63">
-        <v>4.091453072856019</v>
+        <v>0.6071848308565255</v>
       </c>
     </row>
     <row r="64">
@@ -7252,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="AE64">
-        <v>0.8091266568237989</v>
+        <v>-0.1055057933374928</v>
       </c>
     </row>
     <row r="65">
@@ -7359,7 +7359,7 @@
         <v>2</v>
       </c>
       <c r="AE65">
-        <v>8.309911205330005</v>
+        <v>0.785175179881954</v>
       </c>
     </row>
     <row r="66">
@@ -7466,7 +7466,7 @@
         <v>7</v>
       </c>
       <c r="AE66">
-        <v>2.01514642985481</v>
+        <v>0.3366822983465161</v>
       </c>
     </row>
     <row r="67">
@@ -7573,7 +7573,7 @@
         <v>4</v>
       </c>
       <c r="AE67">
-        <v>0.9556365470980897</v>
+        <v>-0.02268491707609982</v>
       </c>
     </row>
     <row r="68">
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="AE68">
-        <v>0.7801656787102211</v>
+        <v>-0.1234909334107906</v>
       </c>
     </row>
     <row r="69">
@@ -7787,7 +7787,7 @@
         <v>9</v>
       </c>
       <c r="AE69">
-        <v>2.557473299243939</v>
+        <v>0.4378032294929508</v>
       </c>
     </row>
     <row r="70">
@@ -7894,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="AE70">
-        <v>1.1965666984374</v>
+        <v>0.08948815375250596</v>
       </c>
     </row>
     <row r="71">
@@ -8001,7 +8001,7 @@
         <v>5</v>
       </c>
       <c r="AE71">
-        <v>0.3477316390363716</v>
+        <v>-0.4839749561938016</v>
       </c>
     </row>
     <row r="72">
@@ -8108,7 +8108,7 @@
         <v>6</v>
       </c>
       <c r="AE72">
-        <v>0.2797891789910946</v>
+        <v>-0.5627573922578986</v>
       </c>
     </row>
     <row r="73">
@@ -8215,7 +8215,7 @@
         <v>9</v>
       </c>
       <c r="AE73">
-        <v>2.853006980272691</v>
+        <v>0.4809248957398845</v>
       </c>
     </row>
     <row r="74">
@@ -8322,7 +8322,7 @@
         <v>4</v>
       </c>
       <c r="AE74">
-        <v>3.803888887719643</v>
+        <v>0.5836706371138864</v>
       </c>
     </row>
     <row r="75">
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="AE75">
-        <v>0.9122731000202888</v>
+        <v>-0.04587571721778677</v>
       </c>
     </row>
     <row r="76">
@@ -8536,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="AE76">
-        <v>2.046013053624059</v>
+        <v>0.3434039957181217</v>
       </c>
     </row>
     <row r="77">
@@ -8643,7 +8643,7 @@
         <v>8</v>
       </c>
       <c r="AE77">
-        <v>0.4429731025250154</v>
+        <v>-0.3860272215055569</v>
       </c>
     </row>
     <row r="78">
@@ -8750,7 +8750,7 @@
         <v>8</v>
       </c>
       <c r="AE78">
-        <v>1.332829403321044</v>
+        <v>0.1426719857213836</v>
       </c>
     </row>
     <row r="79">
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="AE79">
-        <v>0.3136117226837374</v>
+        <v>-0.5225199086332424</v>
       </c>
     </row>
     <row r="80">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="AE80">
-        <v>0.7854681299283731</v>
+        <v>-0.1201544101939435</v>
       </c>
     </row>
     <row r="81">
@@ -9071,7 +9071,7 @@
         <v>8</v>
       </c>
       <c r="AE81">
-        <v>1.374703664514216</v>
+        <v>0.1577896518683598</v>
       </c>
     </row>
     <row r="82">
@@ -9178,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="AE82">
-        <v>1.766929018492251</v>
+        <v>0.2771769761228514</v>
       </c>
     </row>
     <row r="83">
@@ -9285,7 +9285,7 @@
         <v>7</v>
       </c>
       <c r="AE83">
-        <v>1.867006992376816</v>
+        <v>0.3024083982641587</v>
       </c>
     </row>
     <row r="84">
@@ -9392,7 +9392,7 @@
         <v>6</v>
       </c>
       <c r="AE84">
-        <v>1.227300858762587</v>
+        <v>0.1020521578251748</v>
       </c>
     </row>
     <row r="85">
@@ -9499,7 +9499,7 @@
         <v>3</v>
       </c>
       <c r="AE85">
-        <v>0.8365779902156242</v>
+        <v>-0.08898179693702485</v>
       </c>
     </row>
     <row r="86">
@@ -9606,7 +9606,7 @@
         <v>6</v>
       </c>
       <c r="AE86">
-        <v>1.2930872925624</v>
+        <v>0.1278134040134561</v>
       </c>
     </row>
     <row r="87">
@@ -9713,7 +9713,7 @@
         <v>2</v>
       </c>
       <c r="AE87">
-        <v>0.45864063596382</v>
+        <v>-0.3711396424099128</v>
       </c>
     </row>
     <row r="88">
@@ -9820,7 +9820,7 @@
         <v>2</v>
       </c>
       <c r="AE88">
-        <v>0.5684369047532138</v>
+        <v>-0.2751548971711364</v>
       </c>
     </row>
     <row r="89">
@@ -9927,7 +9927,7 @@
         <v>7</v>
       </c>
       <c r="AE89">
-        <v>4.367098504940783</v>
+        <v>0.6273591777458786</v>
       </c>
     </row>
     <row r="90">
@@ -10034,7 +10034,7 @@
         <v>7</v>
       </c>
       <c r="AE90">
-        <v>0.8895401179535858</v>
+        <v>-0.05845860640738587</v>
       </c>
     </row>
     <row r="91">
@@ -10141,7 +10141,7 @@
         <v>9</v>
       </c>
       <c r="AE91">
-        <v>0.05732093268888811</v>
+        <v>-0.8915732566778671</v>
       </c>
     </row>
     <row r="92">
@@ -10248,7 +10248,7 @@
         <v>8</v>
       </c>
       <c r="AE92">
-        <v>0.3322603741629204</v>
+        <v>-0.5012080512089317</v>
       </c>
     </row>
     <row r="93">
@@ -10355,7 +10355,7 @@
         <v>9</v>
       </c>
       <c r="AE93">
-        <v>3.062301460643373</v>
+        <v>0.5076682468358105</v>
       </c>
     </row>
     <row r="94">
@@ -10462,7 +10462,7 @@
         <v>9</v>
       </c>
       <c r="AE94">
-        <v>1.698919176796843</v>
+        <v>0.2589626183716777</v>
       </c>
     </row>
     <row r="95">
@@ -10569,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="AE95">
-        <v>1.130002717937419</v>
+        <v>0.06103406199561412</v>
       </c>
     </row>
     <row r="96">
@@ -10676,7 +10676,7 @@
         <v>10</v>
       </c>
       <c r="AE96">
-        <v>1.163551519593605</v>
+        <v>0.07559400278313055</v>
       </c>
     </row>
     <row r="97">
@@ -10783,7 +10783,7 @@
         <v>5</v>
       </c>
       <c r="AE97">
-        <v>1.073517940023223</v>
+        <v>0.03545565659412586</v>
       </c>
     </row>
     <row r="98">
@@ -10890,7 +10890,7 @@
         <v>10</v>
       </c>
       <c r="AE98">
-        <v>0.2598691787891256</v>
+        <v>-0.5874664081569345</v>
       </c>
     </row>
     <row r="99">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="AE99">
-        <v>0.6957554154850975</v>
+        <v>-0.1794153695377518</v>
       </c>
     </row>
     <row r="100">
@@ -11104,7 +11104,7 @@
         <v>6</v>
       </c>
       <c r="AE100">
-        <v>0.8541423837462222</v>
+        <v>-0.07866581203924494</v>
       </c>
     </row>
     <row r="101">
@@ -11211,7 +11211,7 @@
         <v>9</v>
       </c>
       <c r="AE101">
-        <v>1.257534529778155</v>
+        <v>0.1140777810399482</v>
       </c>
     </row>
     <row r="102">
@@ -11318,7 +11318,7 @@
         <v>3</v>
       </c>
       <c r="AE102">
-        <v>0.1982619795948744</v>
+        <v>-0.6690840851649058</v>
       </c>
     </row>
     <row r="103">
@@ -11425,7 +11425,7 @@
         <v>9</v>
       </c>
       <c r="AE103">
-        <v>0.6933668485367239</v>
+        <v>-0.1810789857662825</v>
       </c>
     </row>
     <row r="104">
@@ -11532,7 +11532,7 @@
         <v>10</v>
       </c>
       <c r="AE104">
-        <v>0.09629414047207931</v>
+        <v>-0.824327911794523</v>
       </c>
     </row>
     <row r="105">
@@ -11639,7 +11639,7 @@
         <v>7</v>
       </c>
       <c r="AE105">
-        <v>0.70632606118283</v>
+        <v>-0.172108921910033</v>
       </c>
     </row>
     <row r="106">
@@ -11746,7 +11746,7 @@
         <v>10</v>
       </c>
       <c r="AE106">
-        <v>0.5753424196516833</v>
+        <v>-0.269565254544603</v>
       </c>
     </row>
     <row r="107">
@@ -11853,7 +11853,7 @@
         <v>4</v>
       </c>
       <c r="AE107">
-        <v>0.8806714412062715</v>
+        <v>-0.06344997652391132</v>
       </c>
     </row>
     <row r="108">
@@ -11960,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="AE108">
-        <v>1.196155308575836</v>
+        <v>0.0893175941655231</v>
       </c>
     </row>
     <row r="109">
@@ -12067,7 +12067,7 @@
         <v>3</v>
       </c>
       <c r="AE109">
-        <v>2.640575326095445</v>
+        <v>0.4506362811218027</v>
       </c>
     </row>
     <row r="110">
@@ -12174,7 +12174,7 @@
         <v>8</v>
       </c>
       <c r="AE110">
-        <v>8.872727512136896</v>
+        <v>0.7974217360358291</v>
       </c>
     </row>
     <row r="111">
@@ -12281,7 +12281,7 @@
         <v>9</v>
       </c>
       <c r="AE111">
-        <v>2.096365370804468</v>
+        <v>0.3540813952843107</v>
       </c>
     </row>
     <row r="112">
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="AE112">
-        <v>2.578016462424817</v>
+        <v>0.4410310793694329</v>
       </c>
     </row>
     <row r="113">
@@ -12495,7 +12495,7 @@
         <v>9</v>
       </c>
       <c r="AE113">
-        <v>2.271318754616106</v>
+        <v>0.3886257653193129</v>
       </c>
     </row>
     <row r="114">
@@ -12602,7 +12602,7 @@
         <v>3</v>
       </c>
       <c r="AE114">
-        <v>0.6890659262352887</v>
+        <v>-0.1840864047608511</v>
       </c>
     </row>
     <row r="115">
@@ -12709,7 +12709,7 @@
         <v>10</v>
       </c>
       <c r="AE115">
-        <v>2.634304211112927</v>
+        <v>0.4496883354221073</v>
       </c>
     </row>
     <row r="116">
@@ -12816,7 +12816,7 @@
         <v>1</v>
       </c>
       <c r="AE116">
-        <v>1.034491051305709</v>
+        <v>0.01695315950570198</v>
       </c>
     </row>
     <row r="117">
@@ -12923,7 +12923,7 @@
         <v>3</v>
       </c>
       <c r="AE117">
-        <v>0.5643902838224043</v>
+        <v>-0.2784533506007429</v>
       </c>
     </row>
     <row r="118">
@@ -13030,7 +13030,7 @@
         <v>5</v>
       </c>
       <c r="AE118">
-        <v>2.407125563932473</v>
+        <v>0.4129949241754337</v>
       </c>
     </row>
     <row r="119">
@@ -13137,7 +13137,7 @@
         <v>2</v>
       </c>
       <c r="AE119">
-        <v>0.8604504565768112</v>
+        <v>-0.07500847062595634</v>
       </c>
     </row>
     <row r="120">
@@ -13244,7 +13244,7 @@
         <v>8</v>
       </c>
       <c r="AE120">
-        <v>1.025487784224586</v>
+        <v>0.01258352897662307</v>
       </c>
     </row>
     <row r="121">
@@ -13351,7 +13351,7 @@
         <v>1</v>
       </c>
       <c r="AE121">
-        <v>0.7113041722633318</v>
+        <v>-0.1686993068887606</v>
       </c>
     </row>
     <row r="122">
@@ -13458,7 +13458,7 @@
         <v>7</v>
       </c>
       <c r="AE122">
-        <v>0.2288693481254142</v>
+        <v>-0.6275123169529058</v>
       </c>
     </row>
     <row r="123">
@@ -13565,7 +13565,7 @@
         <v>7</v>
       </c>
       <c r="AE123">
-        <v>0.8909269330742865</v>
+        <v>-0.05768232765524239</v>
       </c>
     </row>
     <row r="124">
@@ -13672,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="AE124">
-        <v>0.8832541346933571</v>
+        <v>-0.06199156192249761</v>
       </c>
     </row>
     <row r="125">
@@ -13779,7 +13779,7 @@
         <v>2</v>
       </c>
       <c r="AE125">
-        <v>0.5115685896972419</v>
+        <v>-0.3231288435284222</v>
       </c>
     </row>
     <row r="126">
@@ -13886,7 +13886,7 @@
         <v>3</v>
       </c>
       <c r="AE126">
-        <v>0.5167155301378074</v>
+        <v>-0.3186388352061522</v>
       </c>
     </row>
     <row r="127">
@@ -13993,7 +13993,7 @@
         <v>5</v>
       </c>
       <c r="AE127">
-        <v>7.051218843551222</v>
+        <v>0.751590406513178</v>
       </c>
     </row>
     <row r="128">
@@ -14100,7 +14100,7 @@
         <v>10</v>
       </c>
       <c r="AE128">
-        <v>15.2202839497154</v>
+        <v>0.8766975962812851</v>
       </c>
     </row>
     <row r="129">
@@ -14207,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="AE129">
-        <v>1.185524507288013</v>
+        <v>0.08488786406619975</v>
       </c>
     </row>
     <row r="130">
@@ -14314,7 +14314,7 @@
         <v>6</v>
       </c>
       <c r="AE130">
-        <v>0.3018476135347906</v>
+        <v>-0.5362781167371645</v>
       </c>
     </row>
     <row r="131">
@@ -14421,7 +14421,7 @@
         <v>2</v>
       </c>
       <c r="AE131">
-        <v>0.715559953098121</v>
+        <v>-0.1658001204727413</v>
       </c>
     </row>
     <row r="132">
@@ -14528,7 +14528,7 @@
         <v>9</v>
       </c>
       <c r="AE132">
-        <v>1.146590033388604</v>
+        <v>0.06828972049087417</v>
       </c>
     </row>
     <row r="133">
@@ -14635,7 +14635,7 @@
         <v>8</v>
       </c>
       <c r="AE133">
-        <v>2.055359648897138</v>
+        <v>0.3454125766431719</v>
       </c>
     </row>
     <row r="134">
@@ -14742,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="AE134">
-        <v>1.460350278101677</v>
+        <v>0.1871076172360578</v>
       </c>
     </row>
     <row r="135">
@@ -14849,7 +14849,7 @@
         <v>5</v>
       </c>
       <c r="AE135">
-        <v>2.02782201371508</v>
+        <v>0.3394591918082933</v>
       </c>
     </row>
     <row r="136">
@@ -14956,7 +14956,7 @@
         <v>4</v>
       </c>
       <c r="AE136">
-        <v>0.6142895823538138</v>
+        <v>-0.2389350844250493</v>
       </c>
     </row>
     <row r="137">
@@ -15063,7 +15063,7 @@
         <v>7</v>
       </c>
       <c r="AE137">
-        <v>0.3769698266194444</v>
+        <v>-0.4524646519743555</v>
       </c>
     </row>
     <row r="138">
@@ -15170,7 +15170,7 @@
         <v>4</v>
       </c>
       <c r="AE138">
-        <v>0.8478242149845906</v>
+        <v>-0.08235403767380456</v>
       </c>
     </row>
     <row r="139">
@@ -15277,7 +15277,7 @@
         <v>9</v>
       </c>
       <c r="AE139">
-        <v>2.588485539053288</v>
+        <v>0.4426618198027799</v>
       </c>
     </row>
     <row r="140">
@@ -15384,7 +15384,7 @@
         <v>4</v>
       </c>
       <c r="AE140">
-        <v>2.66956656451829</v>
+        <v>0.4549765034000566</v>
       </c>
     </row>
     <row r="141">
@@ -15491,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="AE141">
-        <v>6.123443468719992</v>
+        <v>0.7192369099604325</v>
       </c>
     </row>
     <row r="142">
@@ -15598,7 +15598,7 @@
         <v>9</v>
       </c>
       <c r="AE142">
-        <v>0.8610838890991902</v>
+        <v>-0.07464258420293379</v>
       </c>
     </row>
     <row r="143">
@@ -15705,7 +15705,7 @@
         <v>2</v>
       </c>
       <c r="AE143">
-        <v>0.5354587246134129</v>
+        <v>-0.3025423399144422</v>
       </c>
     </row>
     <row r="144">
@@ -15812,7 +15812,7 @@
         <v>7</v>
       </c>
       <c r="AE144">
-        <v>0.4765767283248046</v>
+        <v>-0.3544843025319963</v>
       </c>
     </row>
     <row r="145">
@@ -15919,7 +15919,7 @@
         <v>6</v>
       </c>
       <c r="AE145">
-        <v>4.135436703239381</v>
+        <v>0.6105491868416135</v>
       </c>
     </row>
     <row r="146">
@@ -16026,7 +16026,7 @@
         <v>9</v>
       </c>
       <c r="AE146">
-        <v>3.022336499209363</v>
+        <v>0.5027765577561392</v>
       </c>
     </row>
     <row r="147">
@@ -16133,7 +16133,7 @@
         <v>10</v>
       </c>
       <c r="AE147">
-        <v>0.2997479640212496</v>
+        <v>-0.5387598637294746</v>
       </c>
     </row>
     <row r="148">
@@ -16240,7 +16240,7 @@
         <v>1</v>
       </c>
       <c r="AE148">
-        <v>0.912729630693921</v>
+        <v>-0.04562608740181334</v>
       </c>
     </row>
     <row r="149">
@@ -16347,7 +16347,7 @@
         <v>7</v>
       </c>
       <c r="AE149">
-        <v>1.441736838307987</v>
+        <v>0.1809109120105223</v>
       </c>
     </row>
     <row r="150">
@@ -16454,7 +16454,7 @@
         <v>2</v>
       </c>
       <c r="AE150">
-        <v>1.046333087083572</v>
+        <v>0.02264200651205106</v>
       </c>
     </row>
     <row r="151">
@@ -16561,7 +16561,7 @@
         <v>7</v>
       </c>
       <c r="AE151">
-        <v>3.453026459358747</v>
+        <v>0.5508672543823134</v>
       </c>
     </row>
     <row r="152">
@@ -16668,7 +16668,7 @@
         <v>1</v>
       </c>
       <c r="AE152">
-        <v>1.821967428626616</v>
+        <v>0.2912745981007469</v>
       </c>
     </row>
     <row r="153">
@@ -16775,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="AE153">
-        <v>0.9044258604322312</v>
+        <v>-0.05018527712392923</v>
       </c>
     </row>
     <row r="154">
@@ -16882,7 +16882,7 @@
         <v>7</v>
       </c>
       <c r="AE154">
-        <v>0.5970724960365701</v>
+        <v>-0.2522913048489462</v>
       </c>
     </row>
     <row r="155">
@@ -16989,7 +16989,7 @@
         <v>7</v>
       </c>
       <c r="AE155">
-        <v>8.468858028458996</v>
+        <v>0.7887812876707068</v>
       </c>
     </row>
     <row r="156">
@@ -17096,7 +17096,7 @@
         <v>3</v>
       </c>
       <c r="AE156">
-        <v>0.3594245865380822</v>
+        <v>-0.47121070179642</v>
       </c>
     </row>
     <row r="157">
@@ -17203,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="AE157">
-        <v>0.2389217502733576</v>
+        <v>-0.6143069564794685</v>
       </c>
     </row>
     <row r="158">
@@ -17310,7 +17310,7 @@
         <v>10</v>
       </c>
       <c r="AE158">
-        <v>0.7232626252144039</v>
+        <v>-0.1605892048817371</v>
       </c>
     </row>
     <row r="159">
@@ -17417,7 +17417,7 @@
         <v>5</v>
       </c>
       <c r="AE159">
-        <v>1.207840096667843</v>
+        <v>0.0941372959851231</v>
       </c>
     </row>
     <row r="160">
@@ -17524,7 +17524,7 @@
         <v>8</v>
       </c>
       <c r="AE160">
-        <v>2.27300894622218</v>
+        <v>0.3889414808021013</v>
       </c>
     </row>
     <row r="161">
@@ -17631,7 +17631,7 @@
         <v>6</v>
       </c>
       <c r="AE161">
-        <v>0.764265455045873</v>
+        <v>-0.1336162561478015</v>
       </c>
     </row>
     <row r="162">
@@ -17738,7 +17738,7 @@
         <v>6</v>
       </c>
       <c r="AE162">
-        <v>8.852364689014042</v>
+        <v>0.7970030481890185</v>
       </c>
     </row>
     <row r="163">
@@ -17845,7 +17845,7 @@
         <v>2</v>
       </c>
       <c r="AE163">
-        <v>1.098739859776956</v>
+        <v>0.04704721231503622</v>
       </c>
     </row>
     <row r="164">
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AE164">
-        <v>3.737703845744067</v>
+        <v>0.5778545757357496</v>
       </c>
     </row>
     <row r="165">
@@ -18059,7 +18059,7 @@
         <v>4</v>
       </c>
       <c r="AE165">
-        <v>0.3356511192140805</v>
+        <v>-0.4973970157542589</v>
       </c>
     </row>
     <row r="166">
@@ -18166,7 +18166,7 @@
         <v>10</v>
       </c>
       <c r="AE166">
-        <v>1.863071084358805</v>
+        <v>0.3014494083202592</v>
       </c>
     </row>
     <row r="167">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="AE167">
-        <v>2.146778390832</v>
+        <v>0.3644293459536547</v>
       </c>
     </row>
     <row r="168">
@@ -18380,7 +18380,7 @@
         <v>2</v>
       </c>
       <c r="AE168">
-        <v>0.1067341687901329</v>
+        <v>-0.8071186888413984</v>
       </c>
     </row>
     <row r="169">
@@ -18487,7 +18487,7 @@
         <v>10</v>
       </c>
       <c r="AE169">
-        <v>0.8447244294271705</v>
+        <v>-0.08417277296048281</v>
       </c>
     </row>
     <row r="170">
@@ -18594,7 +18594,7 @@
         <v>4</v>
       </c>
       <c r="AE170">
-        <v>1.262508272921965</v>
+        <v>0.1160253317363313</v>
       </c>
     </row>
     <row r="171">
@@ -18701,7 +18701,7 @@
         <v>9</v>
       </c>
       <c r="AE171">
-        <v>1.488893683707457</v>
+        <v>0.1964301194975915</v>
       </c>
     </row>
     <row r="172">
@@ -18808,7 +18808,7 @@
         <v>5</v>
       </c>
       <c r="AE172">
-        <v>1.729925885460194</v>
+        <v>0.2673793780804959</v>
       </c>
     </row>
     <row r="173">
@@ -18915,7 +18915,7 @@
         <v>10</v>
       </c>
       <c r="AE173">
-        <v>3.37148057236817</v>
+        <v>0.5424891025155496</v>
       </c>
     </row>
     <row r="174">
@@ -19022,7 +19022,7 @@
         <v>4</v>
       </c>
       <c r="AE174">
-        <v>0.1649950993226001</v>
+        <v>-0.7167454190690785</v>
       </c>
     </row>
     <row r="175">
@@ -19129,7 +19129,7 @@
         <v>5</v>
       </c>
       <c r="AE175">
-        <v>0.4083738441362425</v>
+        <v>-0.4200774945707704</v>
       </c>
     </row>
     <row r="176">
@@ -19236,7 +19236,7 @@
         <v>9</v>
       </c>
       <c r="AE176">
-        <v>2.973637204241862</v>
+        <v>0.4966827877831931</v>
       </c>
     </row>
     <row r="177">
@@ -19343,7 +19343,7 @@
         <v>1</v>
       </c>
       <c r="AE177">
-        <v>0.256191793456056</v>
+        <v>-0.5921135692962667</v>
       </c>
     </row>
     <row r="178">
@@ -19450,7 +19450,7 @@
         <v>4</v>
       </c>
       <c r="AE178">
-        <v>2.174327577036827</v>
+        <v>0.3699453029145275</v>
       </c>
     </row>
     <row r="179">
@@ -19557,7 +19557,7 @@
         <v>5</v>
       </c>
       <c r="AE179">
-        <v>1.063729088535587</v>
+        <v>0.03088054962718428</v>
       </c>
     </row>
     <row r="180">
@@ -19664,7 +19664,7 @@
         <v>4</v>
       </c>
       <c r="AE180">
-        <v>0.3844287406230613</v>
+        <v>-0.4446391795506219</v>
       </c>
     </row>
     <row r="181">
@@ -19771,7 +19771,7 @@
         <v>1</v>
       </c>
       <c r="AE181">
-        <v>0.1381275964909824</v>
+        <v>-0.7572722128575908</v>
       </c>
     </row>
     <row r="182">
@@ -19878,7 +19878,7 @@
         <v>8</v>
       </c>
       <c r="AE182">
-        <v>0.2712406229776896</v>
+        <v>-0.5732662753612305</v>
       </c>
     </row>
     <row r="183">
@@ -19985,7 +19985,7 @@
         <v>8</v>
       </c>
       <c r="AE183">
-        <v>4.391244076432966</v>
+        <v>0.6290281108320235</v>
       </c>
     </row>
     <row r="184">
@@ -20092,7 +20092,7 @@
         <v>7</v>
       </c>
       <c r="AE184">
-        <v>1.428561444694369</v>
+        <v>0.1764672026852105</v>
       </c>
     </row>
     <row r="185">
@@ -20199,7 +20199,7 @@
         <v>5</v>
       </c>
       <c r="AE185">
-        <v>0.5011866751154237</v>
+        <v>-0.3322793448364597</v>
       </c>
     </row>
     <row r="186">
@@ -20306,7 +20306,7 @@
         <v>5</v>
       </c>
       <c r="AE186">
-        <v>2.594336436526174</v>
+        <v>0.44356906057104</v>
       </c>
     </row>
     <row r="187">
@@ -20413,7 +20413,7 @@
         <v>6</v>
       </c>
       <c r="AE187">
-        <v>0.8857916662717976</v>
+        <v>-0.06056254026935631</v>
       </c>
     </row>
     <row r="188">
@@ -20520,7 +20520,7 @@
         <v>2</v>
       </c>
       <c r="AE188">
-        <v>1.567789516968509</v>
+        <v>0.2211199606573797</v>
       </c>
     </row>
     <row r="189">
@@ -20627,7 +20627,7 @@
         <v>3</v>
       </c>
       <c r="AE189">
-        <v>3.330105285631224</v>
+        <v>0.5381174664189606</v>
       </c>
     </row>
     <row r="190">
@@ -20734,7 +20734,7 @@
         <v>1</v>
       </c>
       <c r="AE190">
-        <v>1.527107128319393</v>
+        <v>0.2085812359960917</v>
       </c>
     </row>
     <row r="191">
@@ -20841,7 +20841,7 @@
         <v>3</v>
       </c>
       <c r="AE191">
-        <v>0.9171155992745246</v>
+        <v>-0.04323390866823079</v>
       </c>
     </row>
     <row r="192">
@@ -20948,7 +20948,7 @@
         <v>4</v>
       </c>
       <c r="AE192">
-        <v>0.9243546888940761</v>
+        <v>-0.03930944307849876</v>
       </c>
     </row>
     <row r="193">
@@ -21055,7 +21055,7 @@
         <v>4</v>
       </c>
       <c r="AE193">
-        <v>0.5416193476532741</v>
+        <v>-0.297337117002647</v>
       </c>
     </row>
     <row r="194">
@@ -21162,7 +21162,7 @@
         <v>3</v>
       </c>
       <c r="AE194">
-        <v>0.8953272542821048</v>
+        <v>-0.05522674012174333</v>
       </c>
     </row>
     <row r="195">
@@ -21269,7 +21269,7 @@
         <v>10</v>
       </c>
       <c r="AE195">
-        <v>0.830085916295718</v>
+        <v>-0.0928448671132367</v>
       </c>
     </row>
     <row r="196">
@@ -21376,7 +21376,7 @@
         <v>10</v>
       </c>
       <c r="AE196">
-        <v>4.120261032823093</v>
+        <v>0.6093949142086443</v>
       </c>
     </row>
     <row r="197">
@@ -21483,7 +21483,7 @@
         <v>6</v>
       </c>
       <c r="AE197">
-        <v>3.513861883872575</v>
+        <v>0.5569204261331671</v>
       </c>
     </row>
     <row r="198">
@@ -21590,7 +21590,7 @@
         <v>3</v>
       </c>
       <c r="AE198">
-        <v>0.4107407850134692</v>
+        <v>-0.4176948885623272</v>
       </c>
     </row>
     <row r="199">
@@ -21697,7 +21697,7 @@
         <v>8</v>
       </c>
       <c r="AE199">
-        <v>1.350109735945305</v>
+        <v>0.1489759097587319</v>
       </c>
     </row>
     <row r="200">
@@ -21804,7 +21804,7 @@
         <v>2</v>
       </c>
       <c r="AE200">
-        <v>1.380604647572787</v>
+        <v>0.1598773017438419</v>
       </c>
     </row>
     <row r="201">
@@ -21911,7 +21911,7 @@
         <v>4</v>
       </c>
       <c r="AE201">
-        <v>2.422839858676731</v>
+        <v>0.4156898708158671</v>
       </c>
     </row>
     <row r="202">
@@ -22018,7 +22018,7 @@
         <v>3</v>
       </c>
       <c r="AE202">
-        <v>1.550535613043594</v>
+        <v>0.2158509805658551</v>
       </c>
     </row>
     <row r="203">
@@ -22125,7 +22125,7 @@
         <v>10</v>
       </c>
       <c r="AE203">
-        <v>2.187134300792802</v>
+        <v>0.372477024422065</v>
       </c>
     </row>
     <row r="204">
@@ -22232,7 +22232,7 @@
         <v>8</v>
       </c>
       <c r="AE204">
-        <v>0.7610371305846709</v>
+        <v>-0.1356943957995891</v>
       </c>
     </row>
     <row r="205">
@@ -22339,7 +22339,7 @@
         <v>10</v>
       </c>
       <c r="AE205">
-        <v>2.501971774542276</v>
+        <v>0.4288931696882652</v>
       </c>
     </row>
     <row r="206">
@@ -22446,7 +22446,7 @@
         <v>3</v>
       </c>
       <c r="AE206">
-        <v>1.378340014735082</v>
+        <v>0.1590773448670352</v>
       </c>
     </row>
     <row r="207">
@@ -22553,7 +22553,7 @@
         <v>7</v>
       </c>
       <c r="AE207">
-        <v>0.4820882805536653</v>
+        <v>-0.3494472807334108</v>
       </c>
     </row>
     <row r="208">
@@ -22660,7 +22660,7 @@
         <v>5</v>
       </c>
       <c r="AE208">
-        <v>0.1790422423558117</v>
+        <v>-0.69629206499324</v>
       </c>
     </row>
     <row r="209">
@@ -22767,7 +22767,7 @@
         <v>1</v>
       </c>
       <c r="AE209">
-        <v>1.018269589761427</v>
+        <v>0.009052105751435613</v>
       </c>
     </row>
     <row r="210">
@@ -22874,7 +22874,7 @@
         <v>6</v>
       </c>
       <c r="AE210">
-        <v>1.079352109437588</v>
+        <v>0.03816193951829105</v>
       </c>
     </row>
     <row r="211">
@@ -22981,7 +22981,7 @@
         <v>1</v>
       </c>
       <c r="AE211">
-        <v>0.9621926640627556</v>
+        <v>-0.01926790199029876</v>
       </c>
     </row>
     <row r="212">
@@ -23088,7 +23088,7 @@
         <v>7</v>
       </c>
       <c r="AE212">
-        <v>1.3249738841168</v>
+        <v>0.1397752836437773</v>
       </c>
     </row>
     <row r="213">
@@ -23195,7 +23195,7 @@
         <v>3</v>
       </c>
       <c r="AE213">
-        <v>0.5834052005438354</v>
+        <v>-0.2631005628332414</v>
       </c>
     </row>
     <row r="214">
@@ -23302,7 +23302,7 @@
         <v>4</v>
       </c>
       <c r="AE214">
-        <v>1.448709675559962</v>
+        <v>0.1832433138311312</v>
       </c>
     </row>
     <row r="215">
@@ -23409,7 +23409,7 @@
         <v>6</v>
       </c>
       <c r="AE215">
-        <v>2.512621402653106</v>
+        <v>0.4306246615449684</v>
       </c>
     </row>
     <row r="216">
@@ -23516,7 +23516,7 @@
         <v>3</v>
       </c>
       <c r="AE216">
-        <v>0.3967246196433281</v>
+        <v>-0.4319214910887202</v>
       </c>
     </row>
     <row r="217">
@@ -23623,7 +23623,7 @@
         <v>1</v>
       </c>
       <c r="AE217">
-        <v>0.8489783200379745</v>
+        <v>-0.08167844821399745</v>
       </c>
     </row>
     <row r="218">
@@ -23730,7 +23730,7 @@
         <v>2</v>
       </c>
       <c r="AE218">
-        <v>0.8894931668561167</v>
+        <v>-0.05848490753091901</v>
       </c>
     </row>
     <row r="219">
@@ -23837,7 +23837,7 @@
         <v>5</v>
       </c>
       <c r="AE219">
-        <v>2.1059216892272</v>
+        <v>0.3560687615090417</v>
       </c>
     </row>
     <row r="220">
@@ -23944,7 +23944,7 @@
         <v>5</v>
       </c>
       <c r="AE220">
-        <v>0.5056142579708125</v>
+        <v>-0.3283614906088194</v>
       </c>
     </row>
     <row r="221">
@@ -24051,7 +24051,7 @@
         <v>3</v>
       </c>
       <c r="AE221">
-        <v>2.01495252091127</v>
+        <v>0.3366396365686385</v>
       </c>
     </row>
     <row r="222">
@@ -24158,7 +24158,7 @@
         <v>1</v>
       </c>
       <c r="AE222">
-        <v>3.557277460081458</v>
+        <v>0.5611414890757493</v>
       </c>
     </row>
     <row r="223">
@@ -24265,7 +24265,7 @@
         <v>8</v>
       </c>
       <c r="AE223">
-        <v>0.1087427289107963</v>
+        <v>-0.8038449748976074</v>
       </c>
     </row>
     <row r="224">
@@ -24372,7 +24372,7 @@
         <v>6</v>
       </c>
       <c r="AE224">
-        <v>0.4611386983275863</v>
+        <v>-0.3687954485697985</v>
       </c>
     </row>
     <row r="225">
@@ -24479,7 +24479,7 @@
         <v>6</v>
       </c>
       <c r="AE225">
-        <v>2.790553433324888</v>
+        <v>0.4723725611102393</v>
       </c>
     </row>
     <row r="226">
@@ -24586,7 +24586,7 @@
         <v>1</v>
       </c>
       <c r="AE226">
-        <v>1.128756797736299</v>
+        <v>0.06048450338395517</v>
       </c>
     </row>
     <row r="227">
@@ -24693,7 +24693,7 @@
         <v>10</v>
       </c>
       <c r="AE227">
-        <v>0.1251648206532026</v>
+        <v>-0.7775173586025566</v>
       </c>
     </row>
     <row r="228">
@@ -24800,7 +24800,7 @@
         <v>1</v>
       </c>
       <c r="AE228">
-        <v>1.174011434165875</v>
+        <v>0.08004163705451683</v>
       </c>
     </row>
     <row r="229">
@@ -24907,7 +24907,7 @@
         <v>7</v>
       </c>
       <c r="AE229">
-        <v>3.113402229984107</v>
+        <v>0.5137844810261292</v>
       </c>
     </row>
     <row r="230">
@@ -25014,7 +25014,7 @@
         <v>10</v>
       </c>
       <c r="AE230">
-        <v>0.8877169573757535</v>
+        <v>-0.05948086771458522</v>
       </c>
     </row>
     <row r="231">
@@ -25121,7 +25121,7 @@
         <v>10</v>
       </c>
       <c r="AE231">
-        <v>1.797725293719734</v>
+        <v>0.2851335316982151</v>
       </c>
     </row>
     <row r="232">
@@ -25228,7 +25228,7 @@
         <v>7</v>
       </c>
       <c r="AE232">
-        <v>0.5315745525084105</v>
+        <v>-0.3058456715178527</v>
       </c>
     </row>
     <row r="233">
@@ -25335,7 +25335,7 @@
         <v>5</v>
       </c>
       <c r="AE233">
-        <v>3.409412206512683</v>
+        <v>0.5464248053184939</v>
       </c>
     </row>
     <row r="234">
@@ -25442,7 +25442,7 @@
         <v>10</v>
       </c>
       <c r="AE234">
-        <v>0.4425758105783534</v>
+        <v>-0.3864089397133074</v>
       </c>
     </row>
     <row r="235">
@@ -25549,7 +25549,7 @@
         <v>10</v>
       </c>
       <c r="AE235">
-        <v>1.894991720781374</v>
+        <v>0.3091517375876332</v>
       </c>
     </row>
     <row r="236">
@@ -25656,7 +25656,7 @@
         <v>9</v>
       </c>
       <c r="AE236">
-        <v>2.235009950977102</v>
+        <v>0.3817638800783533</v>
       </c>
     </row>
     <row r="237">
@@ -25763,7 +25763,7 @@
         <v>8</v>
       </c>
       <c r="AE237">
-        <v>0.1882555378315725</v>
+        <v>-0.6831396415368418</v>
       </c>
     </row>
     <row r="238">
@@ -25870,7 +25870,7 @@
         <v>7</v>
       </c>
       <c r="AE238">
-        <v>0.3448912191165346</v>
+        <v>-0.4871091219658713</v>
       </c>
     </row>
     <row r="239">
@@ -25977,7 +25977,7 @@
         <v>1</v>
       </c>
       <c r="AE239">
-        <v>1.502315859216084</v>
+        <v>0.2007403890943838</v>
       </c>
     </row>
     <row r="240">
@@ -26084,7 +26084,7 @@
         <v>7</v>
       </c>
       <c r="AE240">
-        <v>0.5271404673845685</v>
+        <v>-0.3096372224522779</v>
       </c>
     </row>
     <row r="241">
@@ -26191,7 +26191,7 @@
         <v>5</v>
       </c>
       <c r="AE241">
-        <v>0.6594674785984346</v>
+        <v>-0.2052059023712685</v>
       </c>
     </row>
     <row r="242">
@@ -26298,7 +26298,7 @@
         <v>4</v>
       </c>
       <c r="AE242">
-        <v>1.062334337015505</v>
+        <v>0.03022513658270953</v>
       </c>
     </row>
     <row r="243">
@@ -26405,7 +26405,7 @@
         <v>1</v>
       </c>
       <c r="AE243">
-        <v>0.3522654569493834</v>
+        <v>-0.4789995482927299</v>
       </c>
     </row>
     <row r="244">
@@ -26512,7 +26512,7 @@
         <v>6</v>
       </c>
       <c r="AE244">
-        <v>0.4232484803489138</v>
+        <v>-0.4052359989238799</v>
       </c>
     </row>
     <row r="245">
@@ -26619,7 +26619,7 @@
         <v>2</v>
       </c>
       <c r="AE245">
-        <v>0.6034299747385948</v>
+        <v>-0.2473260644426069</v>
       </c>
     </row>
     <row r="246">
@@ -26726,7 +26726,7 @@
         <v>2</v>
       </c>
       <c r="AE246">
-        <v>0.9843855974067968</v>
+        <v>-0.007868633300709416</v>
       </c>
     </row>
     <row r="247">
@@ -26833,7 +26833,7 @@
         <v>4</v>
       </c>
       <c r="AE247">
-        <v>1.249536641512172</v>
+        <v>0.110928018200419</v>
       </c>
     </row>
     <row r="248">
@@ -26940,7 +26940,7 @@
         <v>4</v>
       </c>
       <c r="AE248">
-        <v>1.716464317386949</v>
+        <v>0.2637488417577072</v>
       </c>
     </row>
     <row r="249">
@@ -27047,7 +27047,7 @@
         <v>5</v>
       </c>
       <c r="AE249">
-        <v>1.036926082621406</v>
+        <v>0.01812833707440376</v>
       </c>
     </row>
     <row r="250">
@@ -27154,7 +27154,7 @@
         <v>10</v>
       </c>
       <c r="AE250">
-        <v>0.7089566780164303</v>
+        <v>-0.1703046810533437</v>
       </c>
     </row>
     <row r="251">
@@ -27261,7 +27261,7 @@
         <v>9</v>
       </c>
       <c r="AE251">
-        <v>0.2641969882320961</v>
+        <v>-0.5820319290563098</v>
       </c>
     </row>
     <row r="252">
@@ -27368,7 +27368,7 @@
         <v>6</v>
       </c>
       <c r="AE252">
-        <v>0.2881032545041622</v>
+        <v>-0.5526705588286653</v>
       </c>
     </row>
     <row r="253">
@@ -27475,7 +27475,7 @@
         <v>3</v>
       </c>
       <c r="AE253">
-        <v>1.220128033034249</v>
+        <v>0.09915105334416235</v>
       </c>
     </row>
     <row r="254">
@@ -27582,7 +27582,7 @@
         <v>10</v>
       </c>
       <c r="AE254">
-        <v>1.292030469833415</v>
+        <v>0.127411251149135</v>
       </c>
     </row>
     <row r="255">
@@ -27689,7 +27689,7 @@
         <v>7</v>
       </c>
       <c r="AE255">
-        <v>0.9582686243344403</v>
+        <v>-0.02131034279311039</v>
       </c>
     </row>
     <row r="256">
@@ -27796,7 +27796,7 @@
         <v>3</v>
       </c>
       <c r="AE256">
-        <v>3.931300534460386</v>
+        <v>0.5944274768848878</v>
       </c>
     </row>
     <row r="257">
@@ -27903,7 +27903,7 @@
         <v>8</v>
       </c>
       <c r="AE257">
-        <v>0.5508145734739143</v>
+        <v>-0.2896448319542706</v>
       </c>
     </row>
     <row r="258">
@@ -28010,7 +28010,7 @@
         <v>8</v>
       </c>
       <c r="AE258">
-        <v>0.2145830708172287</v>
+        <v>-0.646655587463693</v>
       </c>
     </row>
     <row r="259">
@@ -28117,7 +28117,7 @@
         <v>7</v>
       </c>
       <c r="AE259">
-        <v>1.078329819874766</v>
+        <v>0.03768883029330072</v>
       </c>
     </row>
     <row r="260">
@@ -28224,7 +28224,7 @@
         <v>3</v>
       </c>
       <c r="AE260">
-        <v>1.438508520741971</v>
+        <v>0.1798265279829921</v>
       </c>
     </row>
   </sheetData>
